--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K294"/>
+  <dimension ref="A1:N294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +493,21 @@
           <t>StartDate</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>NgayraSX</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>StartDaten</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>NgayraSXn</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -526,8 +545,12 @@
           <t>Đào tạo mới</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>23</v>
+      </c>
+      <c r="I2" t="n">
+        <v>28</v>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>PHUONGcde</t>
@@ -535,8 +558,19 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2024-08-02</t>
-        </is>
+          <t>2024-06-06</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2024-07-11</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>45449</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>45484</v>
       </c>
     </row>
     <row r="3">
@@ -575,7 +609,9 @@
           <t>None</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>31</v>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
@@ -587,6 +623,11 @@
           <t>2024-08-01</t>
         </is>
       </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -624,7 +665,9 @@
           <t>None</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>18</v>
+      </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
@@ -636,6 +679,11 @@
           <t>2024-05-02</t>
         </is>
       </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -673,7 +721,9 @@
           <t>None</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>18</v>
+      </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
@@ -685,6 +735,11 @@
           <t>2024-05-02</t>
         </is>
       </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -722,7 +777,9 @@
           <t>None</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>18</v>
+      </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
@@ -734,6 +791,11 @@
           <t>2024-05-02</t>
         </is>
       </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -763,7 +825,9 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>18</v>
+      </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
@@ -771,6 +835,11 @@
           <t>2024-05-02</t>
         </is>
       </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -800,7 +869,9 @@
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>18</v>
+      </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
@@ -808,6 +879,11 @@
           <t>2024-05-02</t>
         </is>
       </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -837,7 +913,9 @@
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>18</v>
+      </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
@@ -845,6 +923,11 @@
           <t>2024-05-02</t>
         </is>
       </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -874,7 +957,9 @@
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>18</v>
+      </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
@@ -882,6 +967,11 @@
           <t>2024-05-02</t>
         </is>
       </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -911,7 +1001,9 @@
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>18</v>
+      </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
@@ -919,6 +1011,11 @@
           <t>2024-05-02</t>
         </is>
       </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -948,7 +1045,9 @@
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>18</v>
+      </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
@@ -956,6 +1055,11 @@
           <t>2024-05-02</t>
         </is>
       </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -985,7 +1089,9 @@
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>18</v>
+      </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
@@ -993,6 +1099,11 @@
           <t>2024-05-02</t>
         </is>
       </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1022,7 +1133,9 @@
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>18</v>
+      </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
@@ -1030,6 +1143,11 @@
           <t>2024-05-02</t>
         </is>
       </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1059,7 +1177,9 @@
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>18</v>
+      </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
@@ -1067,6 +1187,11 @@
           <t>2024-05-02</t>
         </is>
       </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1096,7 +1221,9 @@
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>18</v>
+      </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
@@ -1104,6 +1231,11 @@
           <t>2024-05-02</t>
         </is>
       </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1133,7 +1265,9 @@
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>18</v>
+      </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
@@ -1141,6 +1275,11 @@
           <t>2024-05-02</t>
         </is>
       </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1170,7 +1309,9 @@
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>18</v>
+      </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
@@ -1178,6 +1319,11 @@
           <t>2024-05-02</t>
         </is>
       </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1207,7 +1353,9 @@
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>18</v>
+      </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
@@ -1215,6 +1363,11 @@
           <t>2024-05-02</t>
         </is>
       </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1244,7 +1397,9 @@
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>18</v>
+      </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
@@ -1252,6 +1407,11 @@
           <t>2024-05-02</t>
         </is>
       </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1281,7 +1441,9 @@
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>18</v>
+      </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
@@ -1289,6 +1451,11 @@
           <t>2024-05-02</t>
         </is>
       </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1318,7 +1485,9 @@
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>18</v>
+      </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
@@ -1326,6 +1495,11 @@
           <t>2024-05-02</t>
         </is>
       </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1355,7 +1529,9 @@
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>18</v>
+      </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
@@ -1363,6 +1539,11 @@
           <t>2024-05-02</t>
         </is>
       </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1392,7 +1573,9 @@
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>18</v>
+      </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
@@ -1400,6 +1583,11 @@
           <t>2024-05-02</t>
         </is>
       </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1429,7 +1617,9 @@
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>18</v>
+      </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
@@ -1437,6 +1627,11 @@
           <t>2024-05-02</t>
         </is>
       </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1466,7 +1661,9 @@
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>18</v>
+      </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
@@ -1474,6 +1671,11 @@
           <t>2024-05-02</t>
         </is>
       </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1503,7 +1705,9 @@
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>19</v>
+      </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
@@ -1511,6 +1715,11 @@
           <t>2024-05-06</t>
         </is>
       </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1540,7 +1749,9 @@
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>19</v>
+      </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
@@ -1548,6 +1759,11 @@
           <t>2024-05-06</t>
         </is>
       </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1577,7 +1793,9 @@
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>19</v>
+      </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
@@ -1585,6 +1803,11 @@
           <t>2024-05-06</t>
         </is>
       </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1614,7 +1837,9 @@
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>19</v>
+      </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
@@ -1622,6 +1847,11 @@
           <t>2024-05-06</t>
         </is>
       </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1651,7 +1881,9 @@
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>19</v>
+      </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
@@ -1659,6 +1891,11 @@
           <t>2024-05-06</t>
         </is>
       </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1688,7 +1925,9 @@
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>20</v>
+      </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
@@ -1696,6 +1935,11 @@
           <t>2024-05-13</t>
         </is>
       </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1725,7 +1969,9 @@
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>20</v>
+      </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
@@ -1733,6 +1979,11 @@
           <t>2024-05-13</t>
         </is>
       </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1762,7 +2013,9 @@
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
+      <c r="H34" t="n">
+        <v>20</v>
+      </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
@@ -1770,6 +2023,11 @@
           <t>2024-05-13</t>
         </is>
       </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1799,7 +2057,9 @@
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>20</v>
+      </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
@@ -1807,6 +2067,11 @@
           <t>2024-05-13</t>
         </is>
       </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1836,7 +2101,9 @@
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>20</v>
+      </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
@@ -1844,6 +2111,11 @@
           <t>2024-05-13</t>
         </is>
       </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1873,7 +2145,9 @@
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>20</v>
+      </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
@@ -1881,6 +2155,11 @@
           <t>2024-05-13</t>
         </is>
       </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1910,7 +2189,9 @@
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
+      <c r="H38" t="n">
+        <v>20</v>
+      </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
@@ -1918,6 +2199,11 @@
           <t>2024-05-13</t>
         </is>
       </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1947,7 +2233,9 @@
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
+      <c r="H39" t="n">
+        <v>20</v>
+      </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
@@ -1955,6 +2243,11 @@
           <t>2024-05-13</t>
         </is>
       </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1984,7 +2277,9 @@
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
+      <c r="H40" t="n">
+        <v>20</v>
+      </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
@@ -1992,6 +2287,11 @@
           <t>2024-05-13</t>
         </is>
       </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2021,7 +2321,9 @@
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
+      <c r="H41" t="n">
+        <v>20</v>
+      </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
@@ -2029,6 +2331,11 @@
           <t>2024-05-13</t>
         </is>
       </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2058,7 +2365,9 @@
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
+      <c r="H42" t="n">
+        <v>20</v>
+      </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
@@ -2066,6 +2375,11 @@
           <t>2024-05-13</t>
         </is>
       </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2095,7 +2409,9 @@
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
+      <c r="H43" t="n">
+        <v>20</v>
+      </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
@@ -2103,6 +2419,11 @@
           <t>2024-05-13</t>
         </is>
       </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2132,7 +2453,9 @@
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>20</v>
+      </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
@@ -2140,6 +2463,11 @@
           <t>2024-05-13</t>
         </is>
       </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2169,7 +2497,9 @@
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
+      <c r="H45" t="n">
+        <v>20</v>
+      </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
@@ -2177,6 +2507,11 @@
           <t>2024-05-13</t>
         </is>
       </c>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2206,7 +2541,9 @@
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
+      <c r="H46" t="n">
+        <v>20</v>
+      </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
@@ -2214,6 +2551,11 @@
           <t>2024-05-13</t>
         </is>
       </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2243,7 +2585,9 @@
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
+      <c r="H47" t="n">
+        <v>20</v>
+      </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
@@ -2251,6 +2595,11 @@
           <t>2024-05-13</t>
         </is>
       </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2280,7 +2629,9 @@
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
+      <c r="H48" t="n">
+        <v>20</v>
+      </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
@@ -2288,6 +2639,11 @@
           <t>2024-05-13</t>
         </is>
       </c>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2317,7 +2673,9 @@
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
+      <c r="H49" t="n">
+        <v>20</v>
+      </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
@@ -2325,6 +2683,11 @@
           <t>2024-05-13</t>
         </is>
       </c>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2354,7 +2717,9 @@
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
+      <c r="H50" t="n">
+        <v>20</v>
+      </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
@@ -2362,6 +2727,11 @@
           <t>2024-05-13</t>
         </is>
       </c>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2391,7 +2761,9 @@
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
+      <c r="H51" t="n">
+        <v>20</v>
+      </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
@@ -2399,6 +2771,11 @@
           <t>2024-05-13</t>
         </is>
       </c>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2428,7 +2805,9 @@
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
+      <c r="H52" t="n">
+        <v>20</v>
+      </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
@@ -2436,6 +2815,11 @@
           <t>2024-05-13</t>
         </is>
       </c>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2465,7 +2849,9 @@
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
+      <c r="H53" t="n">
+        <v>20</v>
+      </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
@@ -2473,6 +2859,11 @@
           <t>2024-05-13</t>
         </is>
       </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2502,7 +2893,9 @@
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
+      <c r="H54" t="n">
+        <v>20</v>
+      </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
@@ -2510,6 +2903,11 @@
           <t>2024-05-13</t>
         </is>
       </c>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2539,7 +2937,9 @@
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
+      <c r="H55" t="n">
+        <v>21</v>
+      </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
@@ -2547,6 +2947,11 @@
           <t>2024-05-20</t>
         </is>
       </c>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2576,7 +2981,9 @@
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
+      <c r="H56" t="n">
+        <v>21</v>
+      </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
@@ -2584,6 +2991,11 @@
           <t>2024-05-20</t>
         </is>
       </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2613,7 +3025,9 @@
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
+      <c r="H57" t="n">
+        <v>21</v>
+      </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
@@ -2621,6 +3035,11 @@
           <t>2024-05-20</t>
         </is>
       </c>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2650,7 +3069,9 @@
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
+      <c r="H58" t="n">
+        <v>21</v>
+      </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
@@ -2658,6 +3079,11 @@
           <t>2024-05-20</t>
         </is>
       </c>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2687,7 +3113,9 @@
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
+      <c r="H59" t="n">
+        <v>21</v>
+      </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
@@ -2695,6 +3123,11 @@
           <t>2024-05-20</t>
         </is>
       </c>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2724,7 +3157,9 @@
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
+      <c r="H60" t="n">
+        <v>21</v>
+      </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
@@ -2732,6 +3167,11 @@
           <t>2024-05-20</t>
         </is>
       </c>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2761,7 +3201,9 @@
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
+      <c r="H61" t="n">
+        <v>21</v>
+      </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
@@ -2769,6 +3211,11 @@
           <t>2024-05-20</t>
         </is>
       </c>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2798,7 +3245,9 @@
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
+      <c r="H62" t="n">
+        <v>21</v>
+      </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
@@ -2806,6 +3255,11 @@
           <t>2024-05-20</t>
         </is>
       </c>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2835,7 +3289,9 @@
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
+      <c r="H63" t="n">
+        <v>21</v>
+      </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
@@ -2843,6 +3299,11 @@
           <t>2024-05-20</t>
         </is>
       </c>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2872,7 +3333,9 @@
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
+      <c r="H64" t="n">
+        <v>21</v>
+      </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
@@ -2880,6 +3343,11 @@
           <t>2024-05-20</t>
         </is>
       </c>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2909,7 +3377,9 @@
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
+      <c r="H65" t="n">
+        <v>21</v>
+      </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
@@ -2917,6 +3387,11 @@
           <t>2024-05-20</t>
         </is>
       </c>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2946,7 +3421,9 @@
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
+      <c r="H66" t="n">
+        <v>21</v>
+      </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
@@ -2954,6 +3431,11 @@
           <t>2024-05-20</t>
         </is>
       </c>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2983,7 +3465,9 @@
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
+      <c r="H67" t="n">
+        <v>21</v>
+      </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
@@ -2991,6 +3475,11 @@
           <t>2024-05-20</t>
         </is>
       </c>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3020,7 +3509,9 @@
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
+      <c r="H68" t="n">
+        <v>21</v>
+      </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
@@ -3028,6 +3519,11 @@
           <t>2024-05-20</t>
         </is>
       </c>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3057,7 +3553,9 @@
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
+      <c r="H69" t="n">
+        <v>21</v>
+      </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
@@ -3065,6 +3563,11 @@
           <t>2024-05-20</t>
         </is>
       </c>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3094,7 +3597,9 @@
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
+      <c r="H70" t="n">
+        <v>21</v>
+      </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
@@ -3102,6 +3607,11 @@
           <t>2024-05-20</t>
         </is>
       </c>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3131,7 +3641,9 @@
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
+      <c r="H71" t="n">
+        <v>21</v>
+      </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
@@ -3139,6 +3651,11 @@
           <t>2024-05-20</t>
         </is>
       </c>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3168,7 +3685,9 @@
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
+      <c r="H72" t="n">
+        <v>21</v>
+      </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
@@ -3176,6 +3695,11 @@
           <t>2024-05-20</t>
         </is>
       </c>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3205,7 +3729,9 @@
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
+      <c r="H73" t="n">
+        <v>21</v>
+      </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
@@ -3213,6 +3739,11 @@
           <t>2024-05-20</t>
         </is>
       </c>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3242,7 +3773,9 @@
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
+      <c r="H74" t="n">
+        <v>21</v>
+      </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
@@ -3250,6 +3783,11 @@
           <t>2024-05-20</t>
         </is>
       </c>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3279,7 +3817,9 @@
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
+      <c r="H75" t="n">
+        <v>21</v>
+      </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
@@ -3287,6 +3827,11 @@
           <t>2024-05-20</t>
         </is>
       </c>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3316,7 +3861,9 @@
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
+      <c r="H76" t="n">
+        <v>21</v>
+      </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
@@ -3324,6 +3871,11 @@
           <t>2024-05-20</t>
         </is>
       </c>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3353,7 +3905,9 @@
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
+      <c r="H77" t="n">
+        <v>21</v>
+      </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
@@ -3361,6 +3915,11 @@
           <t>2024-05-20</t>
         </is>
       </c>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3390,7 +3949,9 @@
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
+      <c r="H78" t="n">
+        <v>21</v>
+      </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
@@ -3398,6 +3959,11 @@
           <t>2024-05-20</t>
         </is>
       </c>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3427,7 +3993,9 @@
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
+      <c r="H79" t="n">
+        <v>21</v>
+      </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
@@ -3435,6 +4003,11 @@
           <t>2024-05-20</t>
         </is>
       </c>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3464,7 +4037,9 @@
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
+      <c r="H80" t="n">
+        <v>21</v>
+      </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
@@ -3472,6 +4047,11 @@
           <t>2024-05-20</t>
         </is>
       </c>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3501,7 +4081,9 @@
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
+      <c r="H81" t="n">
+        <v>21</v>
+      </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
@@ -3509,6 +4091,11 @@
           <t>2024-05-20</t>
         </is>
       </c>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3538,7 +4125,9 @@
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
+      <c r="H82" t="n">
+        <v>21</v>
+      </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
@@ -3546,6 +4135,11 @@
           <t>2024-05-20</t>
         </is>
       </c>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3575,7 +4169,9 @@
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
+      <c r="H83" t="n">
+        <v>21</v>
+      </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
@@ -3583,6 +4179,11 @@
           <t>2024-05-20</t>
         </is>
       </c>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3612,7 +4213,9 @@
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
+      <c r="H84" t="n">
+        <v>21</v>
+      </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
@@ -3620,6 +4223,11 @@
           <t>2024-05-20</t>
         </is>
       </c>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3649,7 +4257,9 @@
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
+      <c r="H85" t="n">
+        <v>22</v>
+      </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
@@ -3657,6 +4267,11 @@
           <t>2024-05-27</t>
         </is>
       </c>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3686,7 +4301,9 @@
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
+      <c r="H86" t="n">
+        <v>22</v>
+      </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
@@ -3694,6 +4311,11 @@
           <t>2024-05-27</t>
         </is>
       </c>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3723,7 +4345,9 @@
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
+      <c r="H87" t="n">
+        <v>22</v>
+      </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
@@ -3731,6 +4355,11 @@
           <t>2024-05-27</t>
         </is>
       </c>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3760,7 +4389,9 @@
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
+      <c r="H88" t="n">
+        <v>22</v>
+      </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
@@ -3768,6 +4399,11 @@
           <t>2024-05-27</t>
         </is>
       </c>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3797,7 +4433,9 @@
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
+      <c r="H89" t="n">
+        <v>22</v>
+      </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
@@ -3805,6 +4443,11 @@
           <t>2024-05-27</t>
         </is>
       </c>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3834,7 +4477,9 @@
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
+      <c r="H90" t="n">
+        <v>22</v>
+      </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
@@ -3842,6 +4487,11 @@
           <t>2024-05-27</t>
         </is>
       </c>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3871,7 +4521,9 @@
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
+      <c r="H91" t="n">
+        <v>22</v>
+      </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
@@ -3879,6 +4531,11 @@
           <t>2024-05-27</t>
         </is>
       </c>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3908,7 +4565,9 @@
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
+      <c r="H92" t="n">
+        <v>22</v>
+      </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
@@ -3916,6 +4575,11 @@
           <t>2024-05-27</t>
         </is>
       </c>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3945,7 +4609,9 @@
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
+      <c r="H93" t="n">
+        <v>22</v>
+      </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
@@ -3953,6 +4619,11 @@
           <t>2024-05-27</t>
         </is>
       </c>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3982,7 +4653,9 @@
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
+      <c r="H94" t="n">
+        <v>22</v>
+      </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
@@ -3990,6 +4663,11 @@
           <t>2024-05-27</t>
         </is>
       </c>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4019,7 +4697,9 @@
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
+      <c r="H95" t="n">
+        <v>22</v>
+      </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
@@ -4027,6 +4707,11 @@
           <t>2024-05-27</t>
         </is>
       </c>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4056,7 +4741,9 @@
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
+      <c r="H96" t="n">
+        <v>22</v>
+      </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
@@ -4064,6 +4751,11 @@
           <t>2024-05-27</t>
         </is>
       </c>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4093,7 +4785,9 @@
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
+      <c r="H97" t="n">
+        <v>22</v>
+      </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
@@ -4101,6 +4795,11 @@
           <t>2024-05-27</t>
         </is>
       </c>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4130,7 +4829,9 @@
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
+      <c r="H98" t="n">
+        <v>22</v>
+      </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
@@ -4138,6 +4839,11 @@
           <t>2024-05-27</t>
         </is>
       </c>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4167,7 +4873,9 @@
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
+      <c r="H99" t="n">
+        <v>23</v>
+      </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
@@ -4175,6 +4883,11 @@
           <t>2024-06-03</t>
         </is>
       </c>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4204,7 +4917,9 @@
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
+      <c r="H100" t="n">
+        <v>23</v>
+      </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
@@ -4212,6 +4927,11 @@
           <t>2024-06-03</t>
         </is>
       </c>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4241,7 +4961,9 @@
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
+      <c r="H101" t="n">
+        <v>23</v>
+      </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
@@ -4249,6 +4971,11 @@
           <t>2024-06-03</t>
         </is>
       </c>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4278,7 +5005,9 @@
       </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
+      <c r="H102" t="n">
+        <v>23</v>
+      </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
@@ -4286,6 +5015,11 @@
           <t>2024-06-03</t>
         </is>
       </c>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4315,7 +5049,9 @@
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
+      <c r="H103" t="n">
+        <v>23</v>
+      </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
@@ -4323,6 +5059,11 @@
           <t>2024-06-03</t>
         </is>
       </c>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4352,7 +5093,9 @@
       </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
+      <c r="H104" t="n">
+        <v>23</v>
+      </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
@@ -4360,6 +5103,11 @@
           <t>2024-06-03</t>
         </is>
       </c>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4389,7 +5137,9 @@
       </c>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
+      <c r="H105" t="n">
+        <v>23</v>
+      </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
@@ -4397,6 +5147,11 @@
           <t>2024-06-03</t>
         </is>
       </c>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4426,7 +5181,9 @@
       </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
+      <c r="H106" t="n">
+        <v>23</v>
+      </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
@@ -4434,6 +5191,11 @@
           <t>2024-06-03</t>
         </is>
       </c>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4463,7 +5225,9 @@
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
+      <c r="H107" t="n">
+        <v>23</v>
+      </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
@@ -4471,6 +5235,11 @@
           <t>2024-06-03</t>
         </is>
       </c>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4500,7 +5269,9 @@
       </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
+      <c r="H108" t="n">
+        <v>24</v>
+      </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
@@ -4508,6 +5279,11 @@
           <t>2024-06-10</t>
         </is>
       </c>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4537,7 +5313,9 @@
       </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
+      <c r="H109" t="n">
+        <v>24</v>
+      </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
@@ -4545,6 +5323,11 @@
           <t>2024-06-10</t>
         </is>
       </c>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4574,7 +5357,9 @@
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
+      <c r="H110" t="n">
+        <v>24</v>
+      </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
@@ -4582,6 +5367,11 @@
           <t>2024-06-10</t>
         </is>
       </c>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4611,7 +5401,9 @@
       </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
+      <c r="H111" t="n">
+        <v>24</v>
+      </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
@@ -4619,6 +5411,11 @@
           <t>2024-06-10</t>
         </is>
       </c>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4648,7 +5445,9 @@
       </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
+      <c r="H112" t="n">
+        <v>24</v>
+      </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
@@ -4656,6 +5455,11 @@
           <t>2024-06-10</t>
         </is>
       </c>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4685,7 +5489,9 @@
       </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
+      <c r="H113" t="n">
+        <v>24</v>
+      </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
@@ -4693,6 +5499,11 @@
           <t>2024-06-10</t>
         </is>
       </c>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4722,7 +5533,9 @@
       </c>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
+      <c r="H114" t="n">
+        <v>24</v>
+      </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
@@ -4730,6 +5543,11 @@
           <t>2024-06-10</t>
         </is>
       </c>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4759,7 +5577,9 @@
       </c>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
+      <c r="H115" t="n">
+        <v>24</v>
+      </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
@@ -4767,6 +5587,11 @@
           <t>2024-06-10</t>
         </is>
       </c>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4796,7 +5621,9 @@
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>24</v>
+      </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
@@ -4804,6 +5631,11 @@
           <t>2024-06-10</t>
         </is>
       </c>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4833,7 +5665,9 @@
       </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>24</v>
+      </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
@@ -4841,6 +5675,11 @@
           <t>2024-06-10</t>
         </is>
       </c>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4870,7 +5709,9 @@
       </c>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
+      <c r="H118" t="n">
+        <v>24</v>
+      </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
@@ -4878,6 +5719,11 @@
           <t>2024-06-10</t>
         </is>
       </c>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -4907,7 +5753,9 @@
       </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr"/>
+      <c r="H119" t="n">
+        <v>24</v>
+      </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
@@ -4915,6 +5763,11 @@
           <t>2024-06-10</t>
         </is>
       </c>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -4944,7 +5797,9 @@
       </c>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr"/>
+      <c r="H120" t="n">
+        <v>24</v>
+      </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
@@ -4952,6 +5807,11 @@
           <t>2024-06-10</t>
         </is>
       </c>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4981,7 +5841,9 @@
       </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr"/>
+      <c r="H121" t="n">
+        <v>24</v>
+      </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
@@ -4989,6 +5851,11 @@
           <t>2024-06-10</t>
         </is>
       </c>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5018,7 +5885,9 @@
       </c>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
-      <c r="H122" t="inlineStr"/>
+      <c r="H122" t="n">
+        <v>24</v>
+      </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
@@ -5026,6 +5895,11 @@
           <t>2024-06-10</t>
         </is>
       </c>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5055,7 +5929,9 @@
       </c>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr"/>
+      <c r="H123" t="n">
+        <v>24</v>
+      </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
@@ -5063,6 +5939,11 @@
           <t>2024-06-10</t>
         </is>
       </c>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5092,7 +5973,9 @@
       </c>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr"/>
+      <c r="H124" t="n">
+        <v>24</v>
+      </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
@@ -5100,6 +5983,11 @@
           <t>2024-06-10</t>
         </is>
       </c>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5129,7 +6017,9 @@
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr"/>
+      <c r="H125" t="n">
+        <v>24</v>
+      </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
@@ -5137,6 +6027,11 @@
           <t>2024-06-10</t>
         </is>
       </c>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5166,7 +6061,9 @@
       </c>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr"/>
+      <c r="H126" t="n">
+        <v>24</v>
+      </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
@@ -5174,6 +6071,11 @@
           <t>2024-06-10</t>
         </is>
       </c>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5203,7 +6105,9 @@
       </c>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr"/>
+      <c r="H127" t="n">
+        <v>24</v>
+      </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
@@ -5211,6 +6115,11 @@
           <t>2024-06-10</t>
         </is>
       </c>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5240,7 +6149,9 @@
       </c>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr"/>
+      <c r="H128" t="n">
+        <v>24</v>
+      </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
@@ -5248,6 +6159,11 @@
           <t>2024-06-10</t>
         </is>
       </c>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5277,7 +6193,9 @@
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
-      <c r="H129" t="inlineStr"/>
+      <c r="H129" t="n">
+        <v>24</v>
+      </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
@@ -5285,6 +6203,11 @@
           <t>2024-06-10</t>
         </is>
       </c>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5314,7 +6237,9 @@
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr"/>
+      <c r="H130" t="n">
+        <v>24</v>
+      </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
@@ -5322,6 +6247,11 @@
           <t>2024-06-10</t>
         </is>
       </c>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5351,7 +6281,9 @@
       </c>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
-      <c r="H131" t="inlineStr"/>
+      <c r="H131" t="n">
+        <v>25</v>
+      </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
@@ -5359,6 +6291,11 @@
           <t>2024-06-17</t>
         </is>
       </c>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5388,7 +6325,9 @@
       </c>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
-      <c r="H132" t="inlineStr"/>
+      <c r="H132" t="n">
+        <v>25</v>
+      </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
@@ -5396,6 +6335,11 @@
           <t>2024-06-17</t>
         </is>
       </c>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -5425,7 +6369,9 @@
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
-      <c r="H133" t="inlineStr"/>
+      <c r="H133" t="n">
+        <v>25</v>
+      </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
@@ -5433,6 +6379,11 @@
           <t>2024-06-17</t>
         </is>
       </c>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -5462,7 +6413,9 @@
       </c>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr"/>
+      <c r="H134" t="n">
+        <v>25</v>
+      </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
@@ -5470,6 +6423,11 @@
           <t>2024-06-17</t>
         </is>
       </c>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -5499,7 +6457,9 @@
       </c>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
-      <c r="H135" t="inlineStr"/>
+      <c r="H135" t="n">
+        <v>25</v>
+      </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
@@ -5507,6 +6467,11 @@
           <t>2024-06-17</t>
         </is>
       </c>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -5536,7 +6501,9 @@
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
-      <c r="H136" t="inlineStr"/>
+      <c r="H136" t="n">
+        <v>25</v>
+      </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
@@ -5544,6 +6511,11 @@
           <t>2024-06-17</t>
         </is>
       </c>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -5573,7 +6545,9 @@
       </c>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr"/>
+      <c r="H137" t="n">
+        <v>25</v>
+      </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
@@ -5581,6 +6555,11 @@
           <t>2024-06-17</t>
         </is>
       </c>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -5610,7 +6589,9 @@
       </c>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr"/>
+      <c r="H138" t="n">
+        <v>25</v>
+      </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
@@ -5618,6 +6599,11 @@
           <t>2024-06-17</t>
         </is>
       </c>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -5647,7 +6633,9 @@
       </c>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
-      <c r="H139" t="inlineStr"/>
+      <c r="H139" t="n">
+        <v>25</v>
+      </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
@@ -5655,6 +6643,11 @@
           <t>2024-06-17</t>
         </is>
       </c>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -5684,7 +6677,9 @@
       </c>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
-      <c r="H140" t="inlineStr"/>
+      <c r="H140" t="n">
+        <v>25</v>
+      </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
@@ -5692,6 +6687,11 @@
           <t>2024-06-17</t>
         </is>
       </c>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -5721,7 +6721,9 @@
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr"/>
+      <c r="H141" t="n">
+        <v>25</v>
+      </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
@@ -5729,6 +6731,11 @@
           <t>2024-06-17</t>
         </is>
       </c>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -5758,7 +6765,9 @@
       </c>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr"/>
+      <c r="H142" t="n">
+        <v>25</v>
+      </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
@@ -5766,6 +6775,11 @@
           <t>2024-06-17</t>
         </is>
       </c>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -5795,7 +6809,9 @@
       </c>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
-      <c r="H143" t="inlineStr"/>
+      <c r="H143" t="n">
+        <v>25</v>
+      </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
@@ -5803,6 +6819,11 @@
           <t>2024-06-17</t>
         </is>
       </c>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -5832,7 +6853,9 @@
       </c>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr"/>
+      <c r="H144" t="n">
+        <v>25</v>
+      </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
@@ -5840,6 +6863,11 @@
           <t>2024-06-17</t>
         </is>
       </c>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -5869,7 +6897,9 @@
       </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr"/>
+      <c r="H145" t="n">
+        <v>25</v>
+      </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
@@ -5877,6 +6907,11 @@
           <t>2024-06-17</t>
         </is>
       </c>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -5906,7 +6941,9 @@
       </c>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
-      <c r="H146" t="inlineStr"/>
+      <c r="H146" t="n">
+        <v>25</v>
+      </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
@@ -5914,6 +6951,11 @@
           <t>2024-06-17</t>
         </is>
       </c>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -5943,7 +6985,9 @@
       </c>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
-      <c r="H147" t="inlineStr"/>
+      <c r="H147" t="n">
+        <v>25</v>
+      </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
@@ -5951,6 +6995,11 @@
           <t>2024-06-17</t>
         </is>
       </c>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -5980,7 +7029,9 @@
       </c>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
-      <c r="H148" t="inlineStr"/>
+      <c r="H148" t="n">
+        <v>25</v>
+      </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
@@ -5988,6 +7039,11 @@
           <t>2024-06-17</t>
         </is>
       </c>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -6017,7 +7073,9 @@
       </c>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
-      <c r="H149" t="inlineStr"/>
+      <c r="H149" t="n">
+        <v>25</v>
+      </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
@@ -6025,6 +7083,11 @@
           <t>2024-06-17</t>
         </is>
       </c>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -6054,7 +7117,9 @@
       </c>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
-      <c r="H150" t="inlineStr"/>
+      <c r="H150" t="n">
+        <v>25</v>
+      </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
@@ -6062,6 +7127,11 @@
           <t>2024-06-17</t>
         </is>
       </c>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -6091,7 +7161,9 @@
       </c>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr"/>
+      <c r="H151" t="n">
+        <v>25</v>
+      </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
@@ -6099,6 +7171,11 @@
           <t>2024-06-17</t>
         </is>
       </c>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -6128,7 +7205,9 @@
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
-      <c r="H152" t="inlineStr"/>
+      <c r="H152" t="n">
+        <v>25</v>
+      </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
@@ -6136,6 +7215,11 @@
           <t>2024-06-17</t>
         </is>
       </c>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -6165,7 +7249,9 @@
       </c>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr"/>
+      <c r="H153" t="n">
+        <v>25</v>
+      </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
@@ -6173,6 +7259,11 @@
           <t>2024-06-17</t>
         </is>
       </c>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -6202,7 +7293,9 @@
       </c>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr"/>
-      <c r="H154" t="inlineStr"/>
+      <c r="H154" t="n">
+        <v>25</v>
+      </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
@@ -6210,6 +7303,11 @@
           <t>2024-06-17</t>
         </is>
       </c>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -6239,7 +7337,9 @@
       </c>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr"/>
+      <c r="H155" t="n">
+        <v>25</v>
+      </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
@@ -6247,6 +7347,11 @@
           <t>2024-06-17</t>
         </is>
       </c>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -6276,7 +7381,9 @@
       </c>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
-      <c r="H156" t="inlineStr"/>
+      <c r="H156" t="n">
+        <v>25</v>
+      </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
@@ -6284,6 +7391,11 @@
           <t>2024-06-17</t>
         </is>
       </c>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -6313,7 +7425,9 @@
       </c>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
-      <c r="H157" t="inlineStr"/>
+      <c r="H157" t="n">
+        <v>25</v>
+      </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
@@ -6321,6 +7435,11 @@
           <t>2024-06-17</t>
         </is>
       </c>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -6350,7 +7469,9 @@
       </c>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr"/>
-      <c r="H158" t="inlineStr"/>
+      <c r="H158" t="n">
+        <v>25</v>
+      </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
@@ -6358,6 +7479,11 @@
           <t>2024-06-17</t>
         </is>
       </c>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -6387,7 +7513,9 @@
       </c>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr"/>
+      <c r="H159" t="n">
+        <v>25</v>
+      </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
@@ -6395,6 +7523,11 @@
           <t>2024-06-17</t>
         </is>
       </c>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -6424,7 +7557,9 @@
       </c>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
-      <c r="H160" t="inlineStr"/>
+      <c r="H160" t="n">
+        <v>25</v>
+      </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
@@ -6432,6 +7567,11 @@
           <t>2024-06-17</t>
         </is>
       </c>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -6461,7 +7601,9 @@
       </c>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr"/>
-      <c r="H161" t="inlineStr"/>
+      <c r="H161" t="n">
+        <v>25</v>
+      </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
@@ -6469,6 +7611,11 @@
           <t>2024-06-17</t>
         </is>
       </c>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -6498,7 +7645,9 @@
       </c>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr"/>
-      <c r="H162" t="inlineStr"/>
+      <c r="H162" t="n">
+        <v>26</v>
+      </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
@@ -6506,6 +7655,11 @@
           <t>2024-06-24</t>
         </is>
       </c>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -6535,7 +7689,9 @@
       </c>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr"/>
-      <c r="H163" t="inlineStr"/>
+      <c r="H163" t="n">
+        <v>26</v>
+      </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
@@ -6543,6 +7699,11 @@
           <t>2024-06-24</t>
         </is>
       </c>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -6572,7 +7733,9 @@
       </c>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr"/>
+      <c r="H164" t="n">
+        <v>26</v>
+      </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
@@ -6580,6 +7743,11 @@
           <t>2024-06-24</t>
         </is>
       </c>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -6609,7 +7777,9 @@
       </c>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr"/>
+      <c r="H165" t="n">
+        <v>26</v>
+      </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
@@ -6617,6 +7787,11 @@
           <t>2024-06-24</t>
         </is>
       </c>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -6646,7 +7821,9 @@
       </c>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr"/>
+      <c r="H166" t="n">
+        <v>26</v>
+      </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
@@ -6654,6 +7831,11 @@
           <t>2024-06-24</t>
         </is>
       </c>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -6683,7 +7865,9 @@
       </c>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr"/>
+      <c r="H167" t="n">
+        <v>26</v>
+      </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
@@ -6691,6 +7875,11 @@
           <t>2024-06-24</t>
         </is>
       </c>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -6720,7 +7909,9 @@
       </c>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
-      <c r="H168" t="inlineStr"/>
+      <c r="H168" t="n">
+        <v>26</v>
+      </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
@@ -6728,6 +7919,11 @@
           <t>2024-06-24</t>
         </is>
       </c>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -6757,7 +7953,9 @@
       </c>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr"/>
-      <c r="H169" t="inlineStr"/>
+      <c r="H169" t="n">
+        <v>26</v>
+      </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
@@ -6765,6 +7963,11 @@
           <t>2024-06-24</t>
         </is>
       </c>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -6794,7 +7997,9 @@
       </c>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr"/>
+      <c r="H170" t="n">
+        <v>26</v>
+      </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
@@ -6802,6 +8007,11 @@
           <t>2024-06-24</t>
         </is>
       </c>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -6831,7 +8041,9 @@
       </c>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr"/>
-      <c r="H171" t="inlineStr"/>
+      <c r="H171" t="n">
+        <v>26</v>
+      </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
@@ -6839,6 +8051,11 @@
           <t>2024-06-24</t>
         </is>
       </c>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -6868,7 +8085,9 @@
       </c>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr"/>
+      <c r="H172" t="n">
+        <v>26</v>
+      </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
@@ -6876,6 +8095,11 @@
           <t>2024-06-24</t>
         </is>
       </c>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -6905,7 +8129,9 @@
       </c>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
-      <c r="H173" t="inlineStr"/>
+      <c r="H173" t="n">
+        <v>26</v>
+      </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
@@ -6913,6 +8139,11 @@
           <t>2024-06-24</t>
         </is>
       </c>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -6942,7 +8173,9 @@
       </c>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
-      <c r="H174" t="inlineStr"/>
+      <c r="H174" t="n">
+        <v>26</v>
+      </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
@@ -6950,6 +8183,11 @@
           <t>2024-06-24</t>
         </is>
       </c>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -6979,7 +8217,9 @@
       </c>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
-      <c r="H175" t="inlineStr"/>
+      <c r="H175" t="n">
+        <v>26</v>
+      </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
@@ -6987,6 +8227,11 @@
           <t>2024-06-24</t>
         </is>
       </c>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -7016,7 +8261,9 @@
       </c>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr"/>
-      <c r="H176" t="inlineStr"/>
+      <c r="H176" t="n">
+        <v>26</v>
+      </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
@@ -7024,6 +8271,11 @@
           <t>2024-06-24</t>
         </is>
       </c>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -7053,7 +8305,9 @@
       </c>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr"/>
-      <c r="H177" t="inlineStr"/>
+      <c r="H177" t="n">
+        <v>26</v>
+      </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
@@ -7061,6 +8315,11 @@
           <t>2024-06-24</t>
         </is>
       </c>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -7090,7 +8349,9 @@
       </c>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr"/>
-      <c r="H178" t="inlineStr"/>
+      <c r="H178" t="n">
+        <v>26</v>
+      </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
@@ -7098,6 +8359,11 @@
           <t>2024-06-24</t>
         </is>
       </c>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -7127,7 +8393,9 @@
       </c>
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr"/>
-      <c r="H179" t="inlineStr"/>
+      <c r="H179" t="n">
+        <v>27</v>
+      </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
@@ -7135,6 +8403,11 @@
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -7164,7 +8437,9 @@
       </c>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
-      <c r="H180" t="inlineStr"/>
+      <c r="H180" t="n">
+        <v>27</v>
+      </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
@@ -7172,6 +8447,11 @@
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -7201,7 +8481,9 @@
       </c>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr"/>
-      <c r="H181" t="inlineStr"/>
+      <c r="H181" t="n">
+        <v>27</v>
+      </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
@@ -7209,6 +8491,11 @@
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -7238,7 +8525,9 @@
       </c>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr"/>
-      <c r="H182" t="inlineStr"/>
+      <c r="H182" t="n">
+        <v>27</v>
+      </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
@@ -7246,6 +8535,11 @@
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -7275,7 +8569,9 @@
       </c>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr"/>
-      <c r="H183" t="inlineStr"/>
+      <c r="H183" t="n">
+        <v>27</v>
+      </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
@@ -7283,6 +8579,11 @@
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -7312,7 +8613,9 @@
       </c>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr"/>
-      <c r="H184" t="inlineStr"/>
+      <c r="H184" t="n">
+        <v>27</v>
+      </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
@@ -7320,6 +8623,11 @@
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -7349,7 +8657,9 @@
       </c>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr"/>
+      <c r="H185" t="n">
+        <v>27</v>
+      </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
@@ -7357,6 +8667,11 @@
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -7386,7 +8701,9 @@
       </c>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
-      <c r="H186" t="inlineStr"/>
+      <c r="H186" t="n">
+        <v>27</v>
+      </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
@@ -7394,6 +8711,11 @@
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -7423,7 +8745,9 @@
       </c>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
-      <c r="H187" t="inlineStr"/>
+      <c r="H187" t="n">
+        <v>27</v>
+      </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
@@ -7431,6 +8755,11 @@
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -7460,7 +8789,9 @@
       </c>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr"/>
-      <c r="H188" t="inlineStr"/>
+      <c r="H188" t="n">
+        <v>27</v>
+      </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
@@ -7468,6 +8799,11 @@
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -7497,7 +8833,9 @@
       </c>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
-      <c r="H189" t="inlineStr"/>
+      <c r="H189" t="n">
+        <v>27</v>
+      </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
@@ -7505,6 +8843,11 @@
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -7534,7 +8877,9 @@
       </c>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
-      <c r="H190" t="inlineStr"/>
+      <c r="H190" t="n">
+        <v>27</v>
+      </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
@@ -7542,6 +8887,11 @@
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -7571,7 +8921,9 @@
       </c>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
-      <c r="H191" t="inlineStr"/>
+      <c r="H191" t="n">
+        <v>27</v>
+      </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
@@ -7579,6 +8931,11 @@
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -7608,7 +8965,9 @@
       </c>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr"/>
+      <c r="H192" t="n">
+        <v>27</v>
+      </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
@@ -7616,6 +8975,11 @@
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -7645,7 +9009,9 @@
       </c>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr"/>
+      <c r="H193" t="n">
+        <v>27</v>
+      </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
@@ -7653,6 +9019,11 @@
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -7682,7 +9053,9 @@
       </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr"/>
+      <c r="H194" t="n">
+        <v>27</v>
+      </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
@@ -7690,6 +9063,11 @@
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -7719,7 +9097,9 @@
       </c>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr"/>
+      <c r="H195" t="n">
+        <v>27</v>
+      </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
@@ -7727,6 +9107,11 @@
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -7756,7 +9141,9 @@
       </c>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr"/>
+      <c r="H196" t="n">
+        <v>27</v>
+      </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
@@ -7764,6 +9151,11 @@
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -7793,7 +9185,9 @@
       </c>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="H197" t="n">
+        <v>27</v>
+      </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
@@ -7801,6 +9195,11 @@
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -7830,7 +9229,9 @@
       </c>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
+      <c r="H198" t="n">
+        <v>27</v>
+      </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
@@ -7838,6 +9239,11 @@
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -7867,7 +9273,9 @@
       </c>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
+      <c r="H199" t="n">
+        <v>27</v>
+      </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
@@ -7875,6 +9283,11 @@
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -7904,7 +9317,9 @@
       </c>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
-      <c r="H200" t="inlineStr"/>
+      <c r="H200" t="n">
+        <v>27</v>
+      </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
@@ -7912,6 +9327,11 @@
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -7941,7 +9361,9 @@
       </c>
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr"/>
-      <c r="H201" t="inlineStr"/>
+      <c r="H201" t="n">
+        <v>27</v>
+      </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
@@ -7949,6 +9371,11 @@
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -7978,7 +9405,9 @@
       </c>
       <c r="F202" t="inlineStr"/>
       <c r="G202" t="inlineStr"/>
-      <c r="H202" t="inlineStr"/>
+      <c r="H202" t="n">
+        <v>27</v>
+      </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
@@ -7986,6 +9415,11 @@
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -8015,7 +9449,9 @@
       </c>
       <c r="F203" t="inlineStr"/>
       <c r="G203" t="inlineStr"/>
-      <c r="H203" t="inlineStr"/>
+      <c r="H203" t="n">
+        <v>27</v>
+      </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
@@ -8023,6 +9459,11 @@
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -8052,7 +9493,9 @@
       </c>
       <c r="F204" t="inlineStr"/>
       <c r="G204" t="inlineStr"/>
-      <c r="H204" t="inlineStr"/>
+      <c r="H204" t="n">
+        <v>27</v>
+      </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
@@ -8060,6 +9503,11 @@
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -8089,7 +9537,9 @@
       </c>
       <c r="F205" t="inlineStr"/>
       <c r="G205" t="inlineStr"/>
-      <c r="H205" t="inlineStr"/>
+      <c r="H205" t="n">
+        <v>27</v>
+      </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
@@ -8097,6 +9547,11 @@
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -8126,7 +9581,9 @@
       </c>
       <c r="F206" t="inlineStr"/>
       <c r="G206" t="inlineStr"/>
-      <c r="H206" t="inlineStr"/>
+      <c r="H206" t="n">
+        <v>27</v>
+      </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
@@ -8134,6 +9591,11 @@
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -8163,7 +9625,9 @@
       </c>
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="inlineStr"/>
-      <c r="H207" t="inlineStr"/>
+      <c r="H207" t="n">
+        <v>27</v>
+      </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
@@ -8171,6 +9635,11 @@
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -8200,7 +9669,9 @@
       </c>
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="H208" t="n">
+        <v>27</v>
+      </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
@@ -8208,6 +9679,11 @@
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -8237,7 +9713,9 @@
       </c>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="H209" t="n">
+        <v>27</v>
+      </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
@@ -8245,6 +9723,11 @@
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -8274,7 +9757,9 @@
       </c>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
+      <c r="H210" t="n">
+        <v>27</v>
+      </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
@@ -8282,6 +9767,11 @@
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -8311,7 +9801,9 @@
       </c>
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
+      <c r="H211" t="n">
+        <v>27</v>
+      </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
@@ -8319,6 +9811,11 @@
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -8348,7 +9845,9 @@
       </c>
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="inlineStr"/>
-      <c r="H212" t="inlineStr"/>
+      <c r="H212" t="n">
+        <v>27</v>
+      </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
@@ -8356,6 +9855,11 @@
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -8385,7 +9889,9 @@
       </c>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr"/>
-      <c r="H213" t="inlineStr"/>
+      <c r="H213" t="n">
+        <v>27</v>
+      </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
@@ -8393,6 +9899,11 @@
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -8422,7 +9933,9 @@
       </c>
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr"/>
-      <c r="H214" t="inlineStr"/>
+      <c r="H214" t="n">
+        <v>27</v>
+      </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
@@ -8430,6 +9943,11 @@
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -8459,7 +9977,9 @@
       </c>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr"/>
-      <c r="H215" t="inlineStr"/>
+      <c r="H215" t="n">
+        <v>27</v>
+      </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
@@ -8467,6 +9987,11 @@
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -8496,7 +10021,9 @@
       </c>
       <c r="F216" t="inlineStr"/>
       <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
+      <c r="H216" t="n">
+        <v>27</v>
+      </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
@@ -8504,6 +10031,11 @@
           <t>2024-07-01</t>
         </is>
       </c>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -8533,7 +10065,9 @@
       </c>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
-      <c r="H217" t="inlineStr"/>
+      <c r="H217" t="n">
+        <v>28</v>
+      </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
@@ -8541,6 +10075,11 @@
           <t>2024-07-08</t>
         </is>
       </c>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -8570,7 +10109,9 @@
       </c>
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="inlineStr"/>
-      <c r="H218" t="inlineStr"/>
+      <c r="H218" t="n">
+        <v>28</v>
+      </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
@@ -8578,6 +10119,11 @@
           <t>2024-07-08</t>
         </is>
       </c>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -8607,7 +10153,9 @@
       </c>
       <c r="F219" t="inlineStr"/>
       <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="H219" t="n">
+        <v>28</v>
+      </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
@@ -8615,6 +10163,11 @@
           <t>2024-07-08</t>
         </is>
       </c>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -8644,7 +10197,9 @@
       </c>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
-      <c r="H220" t="inlineStr"/>
+      <c r="H220" t="n">
+        <v>28</v>
+      </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
@@ -8652,6 +10207,11 @@
           <t>2024-07-08</t>
         </is>
       </c>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -8681,7 +10241,9 @@
       </c>
       <c r="F221" t="inlineStr"/>
       <c r="G221" t="inlineStr"/>
-      <c r="H221" t="inlineStr"/>
+      <c r="H221" t="n">
+        <v>28</v>
+      </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
@@ -8689,6 +10251,11 @@
           <t>2024-07-08</t>
         </is>
       </c>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -8718,7 +10285,9 @@
       </c>
       <c r="F222" t="inlineStr"/>
       <c r="G222" t="inlineStr"/>
-      <c r="H222" t="inlineStr"/>
+      <c r="H222" t="n">
+        <v>28</v>
+      </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
@@ -8726,6 +10295,11 @@
           <t>2024-07-08</t>
         </is>
       </c>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -8755,7 +10329,9 @@
       </c>
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="inlineStr"/>
-      <c r="H223" t="inlineStr"/>
+      <c r="H223" t="n">
+        <v>28</v>
+      </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
@@ -8763,6 +10339,11 @@
           <t>2024-07-08</t>
         </is>
       </c>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -8792,7 +10373,9 @@
       </c>
       <c r="F224" t="inlineStr"/>
       <c r="G224" t="inlineStr"/>
-      <c r="H224" t="inlineStr"/>
+      <c r="H224" t="n">
+        <v>28</v>
+      </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
@@ -8800,6 +10383,11 @@
           <t>2024-07-08</t>
         </is>
       </c>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -8829,7 +10417,9 @@
       </c>
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="inlineStr"/>
-      <c r="H225" t="inlineStr"/>
+      <c r="H225" t="n">
+        <v>28</v>
+      </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
@@ -8837,6 +10427,11 @@
           <t>2024-07-08</t>
         </is>
       </c>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -8866,7 +10461,9 @@
       </c>
       <c r="F226" t="inlineStr"/>
       <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="H226" t="n">
+        <v>28</v>
+      </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
@@ -8874,6 +10471,11 @@
           <t>2024-07-08</t>
         </is>
       </c>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -8903,7 +10505,9 @@
       </c>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="H227" t="n">
+        <v>28</v>
+      </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
@@ -8911,6 +10515,11 @@
           <t>2024-07-08</t>
         </is>
       </c>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -8940,7 +10549,9 @@
       </c>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
-      <c r="H228" t="inlineStr"/>
+      <c r="H228" t="n">
+        <v>28</v>
+      </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
@@ -8948,6 +10559,11 @@
           <t>2024-07-08</t>
         </is>
       </c>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -8977,7 +10593,9 @@
       </c>
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="inlineStr"/>
-      <c r="H229" t="inlineStr"/>
+      <c r="H229" t="n">
+        <v>28</v>
+      </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
@@ -8985,6 +10603,11 @@
           <t>2024-07-08</t>
         </is>
       </c>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -9014,7 +10637,9 @@
       </c>
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="inlineStr"/>
-      <c r="H230" t="inlineStr"/>
+      <c r="H230" t="n">
+        <v>28</v>
+      </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
@@ -9022,6 +10647,11 @@
           <t>2024-07-08</t>
         </is>
       </c>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -9051,7 +10681,9 @@
       </c>
       <c r="F231" t="inlineStr"/>
       <c r="G231" t="inlineStr"/>
-      <c r="H231" t="inlineStr"/>
+      <c r="H231" t="n">
+        <v>28</v>
+      </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
@@ -9059,6 +10691,11 @@
           <t>2024-07-08</t>
         </is>
       </c>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -9088,7 +10725,9 @@
       </c>
       <c r="F232" t="inlineStr"/>
       <c r="G232" t="inlineStr"/>
-      <c r="H232" t="inlineStr"/>
+      <c r="H232" t="n">
+        <v>28</v>
+      </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
@@ -9096,6 +10735,11 @@
           <t>2024-07-08</t>
         </is>
       </c>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -9125,7 +10769,9 @@
       </c>
       <c r="F233" t="inlineStr"/>
       <c r="G233" t="inlineStr"/>
-      <c r="H233" t="inlineStr"/>
+      <c r="H233" t="n">
+        <v>28</v>
+      </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
@@ -9133,6 +10779,11 @@
           <t>2024-07-08</t>
         </is>
       </c>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -9162,7 +10813,9 @@
       </c>
       <c r="F234" t="inlineStr"/>
       <c r="G234" t="inlineStr"/>
-      <c r="H234" t="inlineStr"/>
+      <c r="H234" t="n">
+        <v>28</v>
+      </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
@@ -9170,6 +10823,11 @@
           <t>2024-07-08</t>
         </is>
       </c>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -9199,7 +10857,9 @@
       </c>
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="inlineStr"/>
-      <c r="H235" t="inlineStr"/>
+      <c r="H235" t="n">
+        <v>28</v>
+      </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
@@ -9207,6 +10867,11 @@
           <t>2024-07-08</t>
         </is>
       </c>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -9236,7 +10901,9 @@
       </c>
       <c r="F236" t="inlineStr"/>
       <c r="G236" t="inlineStr"/>
-      <c r="H236" t="inlineStr"/>
+      <c r="H236" t="n">
+        <v>28</v>
+      </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
@@ -9244,6 +10911,11 @@
           <t>2024-07-08</t>
         </is>
       </c>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -9273,7 +10945,9 @@
       </c>
       <c r="F237" t="inlineStr"/>
       <c r="G237" t="inlineStr"/>
-      <c r="H237" t="inlineStr"/>
+      <c r="H237" t="n">
+        <v>28</v>
+      </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
@@ -9281,6 +10955,11 @@
           <t>2024-07-08</t>
         </is>
       </c>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -9310,7 +10989,9 @@
       </c>
       <c r="F238" t="inlineStr"/>
       <c r="G238" t="inlineStr"/>
-      <c r="H238" t="inlineStr"/>
+      <c r="H238" t="n">
+        <v>28</v>
+      </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
@@ -9318,6 +10999,11 @@
           <t>2024-07-08</t>
         </is>
       </c>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -9347,7 +11033,9 @@
       </c>
       <c r="F239" t="inlineStr"/>
       <c r="G239" t="inlineStr"/>
-      <c r="H239" t="inlineStr"/>
+      <c r="H239" t="n">
+        <v>28</v>
+      </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
@@ -9355,6 +11043,11 @@
           <t>2024-07-08</t>
         </is>
       </c>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -9384,7 +11077,9 @@
       </c>
       <c r="F240" t="inlineStr"/>
       <c r="G240" t="inlineStr"/>
-      <c r="H240" t="inlineStr"/>
+      <c r="H240" t="n">
+        <v>28</v>
+      </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
@@ -9392,6 +11087,11 @@
           <t>2024-07-08</t>
         </is>
       </c>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -9421,7 +11121,9 @@
       </c>
       <c r="F241" t="inlineStr"/>
       <c r="G241" t="inlineStr"/>
-      <c r="H241" t="inlineStr"/>
+      <c r="H241" t="n">
+        <v>28</v>
+      </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
@@ -9429,6 +11131,11 @@
           <t>2024-07-08</t>
         </is>
       </c>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="N241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -9458,7 +11165,9 @@
       </c>
       <c r="F242" t="inlineStr"/>
       <c r="G242" t="inlineStr"/>
-      <c r="H242" t="inlineStr"/>
+      <c r="H242" t="n">
+        <v>28</v>
+      </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
@@ -9466,6 +11175,11 @@
           <t>2024-07-08</t>
         </is>
       </c>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -9495,7 +11209,9 @@
       </c>
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="inlineStr"/>
-      <c r="H243" t="inlineStr"/>
+      <c r="H243" t="n">
+        <v>28</v>
+      </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
@@ -9503,6 +11219,11 @@
           <t>2024-07-08</t>
         </is>
       </c>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="N243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -9532,7 +11253,9 @@
       </c>
       <c r="F244" t="inlineStr"/>
       <c r="G244" t="inlineStr"/>
-      <c r="H244" t="inlineStr"/>
+      <c r="H244" t="n">
+        <v>28</v>
+      </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
@@ -9540,6 +11263,11 @@
           <t>2024-07-08</t>
         </is>
       </c>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="N244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -9569,7 +11297,9 @@
       </c>
       <c r="F245" t="inlineStr"/>
       <c r="G245" t="inlineStr"/>
-      <c r="H245" t="inlineStr"/>
+      <c r="H245" t="n">
+        <v>28</v>
+      </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
@@ -9577,6 +11307,11 @@
           <t>2024-07-08</t>
         </is>
       </c>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="N245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -9606,7 +11341,9 @@
       </c>
       <c r="F246" t="inlineStr"/>
       <c r="G246" t="inlineStr"/>
-      <c r="H246" t="inlineStr"/>
+      <c r="H246" t="n">
+        <v>28</v>
+      </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
@@ -9614,6 +11351,11 @@
           <t>2024-07-08</t>
         </is>
       </c>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="N246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -9643,7 +11385,9 @@
       </c>
       <c r="F247" t="inlineStr"/>
       <c r="G247" t="inlineStr"/>
-      <c r="H247" t="inlineStr"/>
+      <c r="H247" t="n">
+        <v>28</v>
+      </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
@@ -9651,6 +11395,11 @@
           <t>2024-07-08</t>
         </is>
       </c>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="N247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -9680,7 +11429,9 @@
       </c>
       <c r="F248" t="inlineStr"/>
       <c r="G248" t="inlineStr"/>
-      <c r="H248" t="inlineStr"/>
+      <c r="H248" t="n">
+        <v>28</v>
+      </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
@@ -9688,6 +11439,11 @@
           <t>2024-07-08</t>
         </is>
       </c>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="N248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -9717,7 +11473,9 @@
       </c>
       <c r="F249" t="inlineStr"/>
       <c r="G249" t="inlineStr"/>
-      <c r="H249" t="inlineStr"/>
+      <c r="H249" t="n">
+        <v>28</v>
+      </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
@@ -9725,6 +11483,11 @@
           <t>2024-07-08</t>
         </is>
       </c>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="N249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -9754,7 +11517,9 @@
       </c>
       <c r="F250" t="inlineStr"/>
       <c r="G250" t="inlineStr"/>
-      <c r="H250" t="inlineStr"/>
+      <c r="H250" t="n">
+        <v>28</v>
+      </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
@@ -9762,6 +11527,11 @@
           <t>2024-07-08</t>
         </is>
       </c>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="N250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -9791,7 +11561,9 @@
       </c>
       <c r="F251" t="inlineStr"/>
       <c r="G251" t="inlineStr"/>
-      <c r="H251" t="inlineStr"/>
+      <c r="H251" t="n">
+        <v>29</v>
+      </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
@@ -9799,6 +11571,11 @@
           <t>2024-07-15</t>
         </is>
       </c>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="N251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -9828,7 +11605,9 @@
       </c>
       <c r="F252" t="inlineStr"/>
       <c r="G252" t="inlineStr"/>
-      <c r="H252" t="inlineStr"/>
+      <c r="H252" t="n">
+        <v>29</v>
+      </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
@@ -9836,6 +11615,11 @@
           <t>2024-07-15</t>
         </is>
       </c>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="N252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -9865,7 +11649,9 @@
       </c>
       <c r="F253" t="inlineStr"/>
       <c r="G253" t="inlineStr"/>
-      <c r="H253" t="inlineStr"/>
+      <c r="H253" t="n">
+        <v>29</v>
+      </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
@@ -9873,6 +11659,11 @@
           <t>2024-07-15</t>
         </is>
       </c>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="N253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -9902,7 +11693,9 @@
       </c>
       <c r="F254" t="inlineStr"/>
       <c r="G254" t="inlineStr"/>
-      <c r="H254" t="inlineStr"/>
+      <c r="H254" t="n">
+        <v>29</v>
+      </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
@@ -9910,6 +11703,11 @@
           <t>2024-07-15</t>
         </is>
       </c>
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="N254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -9939,7 +11737,9 @@
       </c>
       <c r="F255" t="inlineStr"/>
       <c r="G255" t="inlineStr"/>
-      <c r="H255" t="inlineStr"/>
+      <c r="H255" t="n">
+        <v>29</v>
+      </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
@@ -9947,6 +11747,11 @@
           <t>2024-07-15</t>
         </is>
       </c>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="N255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -9976,7 +11781,9 @@
       </c>
       <c r="F256" t="inlineStr"/>
       <c r="G256" t="inlineStr"/>
-      <c r="H256" t="inlineStr"/>
+      <c r="H256" t="n">
+        <v>29</v>
+      </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
@@ -9984,6 +11791,11 @@
           <t>2024-07-15</t>
         </is>
       </c>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="N256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -10013,7 +11825,9 @@
       </c>
       <c r="F257" t="inlineStr"/>
       <c r="G257" t="inlineStr"/>
-      <c r="H257" t="inlineStr"/>
+      <c r="H257" t="n">
+        <v>29</v>
+      </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
@@ -10021,6 +11835,11 @@
           <t>2024-07-15</t>
         </is>
       </c>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="N257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -10050,7 +11869,9 @@
       </c>
       <c r="F258" t="inlineStr"/>
       <c r="G258" t="inlineStr"/>
-      <c r="H258" t="inlineStr"/>
+      <c r="H258" t="n">
+        <v>29</v>
+      </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
@@ -10058,6 +11879,11 @@
           <t>2024-07-15</t>
         </is>
       </c>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="N258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -10087,7 +11913,9 @@
       </c>
       <c r="F259" t="inlineStr"/>
       <c r="G259" t="inlineStr"/>
-      <c r="H259" t="inlineStr"/>
+      <c r="H259" t="n">
+        <v>29</v>
+      </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
@@ -10095,6 +11923,11 @@
           <t>2024-07-15</t>
         </is>
       </c>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="N259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -10124,7 +11957,9 @@
       </c>
       <c r="F260" t="inlineStr"/>
       <c r="G260" t="inlineStr"/>
-      <c r="H260" t="inlineStr"/>
+      <c r="H260" t="n">
+        <v>29</v>
+      </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
@@ -10132,6 +11967,11 @@
           <t>2024-07-15</t>
         </is>
       </c>
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="N260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -10161,7 +12001,9 @@
       </c>
       <c r="F261" t="inlineStr"/>
       <c r="G261" t="inlineStr"/>
-      <c r="H261" t="inlineStr"/>
+      <c r="H261" t="n">
+        <v>29</v>
+      </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
@@ -10169,6 +12011,11 @@
           <t>2024-07-15</t>
         </is>
       </c>
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="N261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -10198,7 +12045,9 @@
       </c>
       <c r="F262" t="inlineStr"/>
       <c r="G262" t="inlineStr"/>
-      <c r="H262" t="inlineStr"/>
+      <c r="H262" t="n">
+        <v>29</v>
+      </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
@@ -10206,6 +12055,11 @@
           <t>2024-07-15</t>
         </is>
       </c>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="N262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -10235,7 +12089,9 @@
       </c>
       <c r="F263" t="inlineStr"/>
       <c r="G263" t="inlineStr"/>
-      <c r="H263" t="inlineStr"/>
+      <c r="H263" t="n">
+        <v>29</v>
+      </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
@@ -10243,6 +12099,11 @@
           <t>2024-07-15</t>
         </is>
       </c>
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="N263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -10272,7 +12133,9 @@
       </c>
       <c r="F264" t="inlineStr"/>
       <c r="G264" t="inlineStr"/>
-      <c r="H264" t="inlineStr"/>
+      <c r="H264" t="n">
+        <v>29</v>
+      </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
@@ -10280,6 +12143,11 @@
           <t>2024-07-15</t>
         </is>
       </c>
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="N264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -10309,7 +12177,9 @@
       </c>
       <c r="F265" t="inlineStr"/>
       <c r="G265" t="inlineStr"/>
-      <c r="H265" t="inlineStr"/>
+      <c r="H265" t="n">
+        <v>29</v>
+      </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
@@ -10317,6 +12187,11 @@
           <t>2024-07-15</t>
         </is>
       </c>
+      <c r="L265" t="inlineStr"/>
+      <c r="M265" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="N265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -10346,7 +12221,9 @@
       </c>
       <c r="F266" t="inlineStr"/>
       <c r="G266" t="inlineStr"/>
-      <c r="H266" t="inlineStr"/>
+      <c r="H266" t="n">
+        <v>29</v>
+      </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
@@ -10354,6 +12231,11 @@
           <t>2024-07-15</t>
         </is>
       </c>
+      <c r="L266" t="inlineStr"/>
+      <c r="M266" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="N266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -10383,7 +12265,9 @@
       </c>
       <c r="F267" t="inlineStr"/>
       <c r="G267" t="inlineStr"/>
-      <c r="H267" t="inlineStr"/>
+      <c r="H267" t="n">
+        <v>29</v>
+      </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
@@ -10391,6 +12275,11 @@
           <t>2024-07-15</t>
         </is>
       </c>
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="N267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -10420,7 +12309,9 @@
       </c>
       <c r="F268" t="inlineStr"/>
       <c r="G268" t="inlineStr"/>
-      <c r="H268" t="inlineStr"/>
+      <c r="H268" t="n">
+        <v>29</v>
+      </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
@@ -10428,6 +12319,11 @@
           <t>2024-07-15</t>
         </is>
       </c>
+      <c r="L268" t="inlineStr"/>
+      <c r="M268" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="N268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -10457,7 +12353,9 @@
       </c>
       <c r="F269" t="inlineStr"/>
       <c r="G269" t="inlineStr"/>
-      <c r="H269" t="inlineStr"/>
+      <c r="H269" t="n">
+        <v>29</v>
+      </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
@@ -10465,6 +12363,11 @@
           <t>2024-07-15</t>
         </is>
       </c>
+      <c r="L269" t="inlineStr"/>
+      <c r="M269" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="N269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -10494,7 +12397,9 @@
       </c>
       <c r="F270" t="inlineStr"/>
       <c r="G270" t="inlineStr"/>
-      <c r="H270" t="inlineStr"/>
+      <c r="H270" t="n">
+        <v>29</v>
+      </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
@@ -10502,6 +12407,11 @@
           <t>2024-07-15</t>
         </is>
       </c>
+      <c r="L270" t="inlineStr"/>
+      <c r="M270" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="N270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -10531,7 +12441,9 @@
       </c>
       <c r="F271" t="inlineStr"/>
       <c r="G271" t="inlineStr"/>
-      <c r="H271" t="inlineStr"/>
+      <c r="H271" t="n">
+        <v>29</v>
+      </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
@@ -10539,6 +12451,11 @@
           <t>2024-07-15</t>
         </is>
       </c>
+      <c r="L271" t="inlineStr"/>
+      <c r="M271" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="N271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -10568,7 +12485,9 @@
       </c>
       <c r="F272" t="inlineStr"/>
       <c r="G272" t="inlineStr"/>
-      <c r="H272" t="inlineStr"/>
+      <c r="H272" t="n">
+        <v>29</v>
+      </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
@@ -10576,6 +12495,11 @@
           <t>2024-07-15</t>
         </is>
       </c>
+      <c r="L272" t="inlineStr"/>
+      <c r="M272" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="N272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -10605,7 +12529,9 @@
       </c>
       <c r="F273" t="inlineStr"/>
       <c r="G273" t="inlineStr"/>
-      <c r="H273" t="inlineStr"/>
+      <c r="H273" t="n">
+        <v>29</v>
+      </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
@@ -10613,6 +12539,11 @@
           <t>2024-07-15</t>
         </is>
       </c>
+      <c r="L273" t="inlineStr"/>
+      <c r="M273" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="N273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -10642,7 +12573,9 @@
       </c>
       <c r="F274" t="inlineStr"/>
       <c r="G274" t="inlineStr"/>
-      <c r="H274" t="inlineStr"/>
+      <c r="H274" t="n">
+        <v>29</v>
+      </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
@@ -10650,6 +12583,11 @@
           <t>2024-07-15</t>
         </is>
       </c>
+      <c r="L274" t="inlineStr"/>
+      <c r="M274" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="N274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -10679,7 +12617,9 @@
       </c>
       <c r="F275" t="inlineStr"/>
       <c r="G275" t="inlineStr"/>
-      <c r="H275" t="inlineStr"/>
+      <c r="H275" t="n">
+        <v>29</v>
+      </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
@@ -10687,6 +12627,11 @@
           <t>2024-07-15</t>
         </is>
       </c>
+      <c r="L275" t="inlineStr"/>
+      <c r="M275" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="N275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -10716,7 +12661,9 @@
       </c>
       <c r="F276" t="inlineStr"/>
       <c r="G276" t="inlineStr"/>
-      <c r="H276" t="inlineStr"/>
+      <c r="H276" t="n">
+        <v>30</v>
+      </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
@@ -10724,6 +12671,11 @@
           <t>2024-07-22</t>
         </is>
       </c>
+      <c r="L276" t="inlineStr"/>
+      <c r="M276" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="N276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -10753,7 +12705,9 @@
       </c>
       <c r="F277" t="inlineStr"/>
       <c r="G277" t="inlineStr"/>
-      <c r="H277" t="inlineStr"/>
+      <c r="H277" t="n">
+        <v>30</v>
+      </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
@@ -10761,6 +12715,11 @@
           <t>2024-07-22</t>
         </is>
       </c>
+      <c r="L277" t="inlineStr"/>
+      <c r="M277" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="N277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -10790,7 +12749,9 @@
       </c>
       <c r="F278" t="inlineStr"/>
       <c r="G278" t="inlineStr"/>
-      <c r="H278" t="inlineStr"/>
+      <c r="H278" t="n">
+        <v>30</v>
+      </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
@@ -10798,6 +12759,11 @@
           <t>2024-07-22</t>
         </is>
       </c>
+      <c r="L278" t="inlineStr"/>
+      <c r="M278" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="N278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -10827,7 +12793,9 @@
       </c>
       <c r="F279" t="inlineStr"/>
       <c r="G279" t="inlineStr"/>
-      <c r="H279" t="inlineStr"/>
+      <c r="H279" t="n">
+        <v>30</v>
+      </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
@@ -10835,6 +12803,11 @@
           <t>2024-07-22</t>
         </is>
       </c>
+      <c r="L279" t="inlineStr"/>
+      <c r="M279" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="N279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -10864,7 +12837,9 @@
       </c>
       <c r="F280" t="inlineStr"/>
       <c r="G280" t="inlineStr"/>
-      <c r="H280" t="inlineStr"/>
+      <c r="H280" t="n">
+        <v>30</v>
+      </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
@@ -10872,6 +12847,11 @@
           <t>2024-07-22</t>
         </is>
       </c>
+      <c r="L280" t="inlineStr"/>
+      <c r="M280" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="N280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -10901,7 +12881,9 @@
       </c>
       <c r="F281" t="inlineStr"/>
       <c r="G281" t="inlineStr"/>
-      <c r="H281" t="inlineStr"/>
+      <c r="H281" t="n">
+        <v>30</v>
+      </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
@@ -10909,6 +12891,11 @@
           <t>2024-07-22</t>
         </is>
       </c>
+      <c r="L281" t="inlineStr"/>
+      <c r="M281" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="N281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -10938,7 +12925,9 @@
       </c>
       <c r="F282" t="inlineStr"/>
       <c r="G282" t="inlineStr"/>
-      <c r="H282" t="inlineStr"/>
+      <c r="H282" t="n">
+        <v>30</v>
+      </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
@@ -10946,6 +12935,11 @@
           <t>2024-07-22</t>
         </is>
       </c>
+      <c r="L282" t="inlineStr"/>
+      <c r="M282" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="N282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -10975,7 +12969,9 @@
       </c>
       <c r="F283" t="inlineStr"/>
       <c r="G283" t="inlineStr"/>
-      <c r="H283" t="inlineStr"/>
+      <c r="H283" t="n">
+        <v>30</v>
+      </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
@@ -10983,6 +12979,11 @@
           <t>2024-07-22</t>
         </is>
       </c>
+      <c r="L283" t="inlineStr"/>
+      <c r="M283" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="N283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -11012,7 +13013,9 @@
       </c>
       <c r="F284" t="inlineStr"/>
       <c r="G284" t="inlineStr"/>
-      <c r="H284" t="inlineStr"/>
+      <c r="H284" t="n">
+        <v>30</v>
+      </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
@@ -11020,6 +13023,11 @@
           <t>2024-07-22</t>
         </is>
       </c>
+      <c r="L284" t="inlineStr"/>
+      <c r="M284" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="N284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -11049,7 +13057,9 @@
       </c>
       <c r="F285" t="inlineStr"/>
       <c r="G285" t="inlineStr"/>
-      <c r="H285" t="inlineStr"/>
+      <c r="H285" t="n">
+        <v>30</v>
+      </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
@@ -11057,6 +13067,11 @@
           <t>2024-07-22</t>
         </is>
       </c>
+      <c r="L285" t="inlineStr"/>
+      <c r="M285" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="N285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -11086,7 +13101,9 @@
       </c>
       <c r="F286" t="inlineStr"/>
       <c r="G286" t="inlineStr"/>
-      <c r="H286" t="inlineStr"/>
+      <c r="H286" t="n">
+        <v>30</v>
+      </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
@@ -11094,6 +13111,11 @@
           <t>2024-07-22</t>
         </is>
       </c>
+      <c r="L286" t="inlineStr"/>
+      <c r="M286" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="N286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -11123,7 +13145,9 @@
       </c>
       <c r="F287" t="inlineStr"/>
       <c r="G287" t="inlineStr"/>
-      <c r="H287" t="inlineStr"/>
+      <c r="H287" t="n">
+        <v>30</v>
+      </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
@@ -11131,6 +13155,11 @@
           <t>2024-07-22</t>
         </is>
       </c>
+      <c r="L287" t="inlineStr"/>
+      <c r="M287" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="N287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -11160,7 +13189,9 @@
       </c>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
-      <c r="H288" t="inlineStr"/>
+      <c r="H288" t="n">
+        <v>30</v>
+      </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
@@ -11168,6 +13199,11 @@
           <t>2024-07-22</t>
         </is>
       </c>
+      <c r="L288" t="inlineStr"/>
+      <c r="M288" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="N288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -11197,7 +13233,9 @@
       </c>
       <c r="F289" t="inlineStr"/>
       <c r="G289" t="inlineStr"/>
-      <c r="H289" t="inlineStr"/>
+      <c r="H289" t="n">
+        <v>30</v>
+      </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr">
@@ -11205,6 +13243,11 @@
           <t>2024-07-22</t>
         </is>
       </c>
+      <c r="L289" t="inlineStr"/>
+      <c r="M289" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="N289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -11234,7 +13277,9 @@
       </c>
       <c r="F290" t="inlineStr"/>
       <c r="G290" t="inlineStr"/>
-      <c r="H290" t="inlineStr"/>
+      <c r="H290" t="n">
+        <v>30</v>
+      </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
@@ -11242,6 +13287,11 @@
           <t>2024-07-22</t>
         </is>
       </c>
+      <c r="L290" t="inlineStr"/>
+      <c r="M290" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="N290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -11263,7 +13313,9 @@
       <c r="E291" t="inlineStr"/>
       <c r="F291" t="inlineStr"/>
       <c r="G291" t="inlineStr"/>
-      <c r="H291" t="inlineStr"/>
+      <c r="H291" t="n">
+        <v>31</v>
+      </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
@@ -11271,6 +13323,11 @@
           <t>2024-08-02</t>
         </is>
       </c>
+      <c r="L291" t="inlineStr"/>
+      <c r="M291" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="N291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -11308,7 +13365,9 @@
           <t>Đào tạo mới</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr"/>
+      <c r="H292" t="n">
+        <v>22</v>
+      </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr">
         <is>
@@ -11320,6 +13379,11 @@
           <t>2024-05-27</t>
         </is>
       </c>
+      <c r="L292" t="inlineStr"/>
+      <c r="M292" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="N292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -11349,12 +13413,10 @@
       </c>
       <c r="F293" t="inlineStr"/>
       <c r="G293" t="inlineStr"/>
-      <c r="H293" t="inlineStr"/>
-      <c r="I293" t="inlineStr">
-        <is>
-          <t>24_2024</t>
-        </is>
-      </c>
+      <c r="H293" t="n">
+        <v>7</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr">
         <is>
           <t>PHUONG</t>
@@ -11362,9 +13424,14 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>0000-00-00</t>
-        </is>
-      </c>
+          <t>2024-02-16</t>
+        </is>
+      </c>
+      <c r="L293" t="inlineStr"/>
+      <c r="M293" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="N293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -11402,7 +13469,9 @@
           <t>Đào tạo mới</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr"/>
+      <c r="H294" t="n">
+        <v>22</v>
+      </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr">
         <is>
@@ -11414,6 +13483,11 @@
           <t>2024-05-27</t>
         </is>
       </c>
+      <c r="L294" t="inlineStr"/>
+      <c r="M294" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="N294" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Dữ liệu hàng ngày" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Kết quả đào tạo" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,933 +440,613 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>KEYS</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Line</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Line</t>
+          <t>Shift</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Shift</t>
+          <t>Operation</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>Type_training</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Weekdays</t>
+          <t>NgayraSX</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>WEEK</t>
+          <t>Technician</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>MONTH</t>
+          <t>TuanP2K_max</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>YEAR</t>
+          <t>Eff_max</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Eff</t>
+          <t>Hieusuatgannhat</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>date_no_eff</t>
+          <t>ChitieuHS</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>WorkHrs</t>
+          <t>NgayTN</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>stop_hours</t>
+          <t>TTtuanTN</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>downtime</t>
+          <t>Status</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>realtime_day</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>chatluong</t>
+          <t>Note</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24177320240501</t>
+          <t>241769</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>241773</t>
+          <t>BUI QUANG HAOx123123</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DOAN VAN TAM</t>
+          <t>Line 059</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Line 043</t>
+          <t>RIT</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>BALI</t>
+          <t>SEW BAND</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-05-01</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>4</v>
-      </c>
-      <c r="H2" t="n">
-        <v>18</v>
+          <t>Đào tạo mới</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2024-07-31</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>PHUONGcde</t>
+        </is>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2024</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
-      <c r="M2" t="n">
-        <v>9.5</v>
+      <c r="M2" s="2" t="n">
+        <v>45513</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P2" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
+        <v>-31</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Tốt nghiệp (tạm)</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Ghi chú</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>24177320240502</t>
+          <t>241770</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>241773</t>
+          <t>DAO TRUNG KIEN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DOAN VAN TAM</t>
+          <t>Line 043</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Line 043</t>
+          <t>BALI</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>BALI</t>
+          <t>SEW BAND</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-05-02</t>
+          <t>None</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
-      </c>
-      <c r="H3" t="n">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>phuong</t>
+        </is>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2024</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
-      <c r="M3" t="n">
-        <v>7.4</v>
+      <c r="M3" s="2" t="n">
+        <v>45513</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
+        <v>-31</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Tốt nghiệp (tạm)</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Ghi chú</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>24177320240503</t>
+          <t>241772</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>241773</t>
+          <t>DOAN THI PHUC</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DOAN VAN TAM</t>
+          <t>Line 043</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Line 043</t>
+          <t>BALI</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>BALI</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-05-03</t>
+          <t>None</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
-      </c>
-      <c r="H4" t="n">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>phuongggh</t>
+        </is>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2024</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
-      <c r="M4" t="n">
-        <v>7.4</v>
+      <c r="M4" s="2" t="n">
+        <v>45513</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
+        <v>-31</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Tốt nghiệp (tạm)</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Ghi chú</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>24177320240504</t>
+          <t>241773</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>241773</t>
+          <t>DOAN VAN TAM</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DOAN VAN TAM</t>
+          <t>Line 043</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Line 043</t>
+          <t>BALI</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>BALI</t>
+          <t>BIND PANEL</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024-05-04</t>
+          <t>None</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="J5" t="n">
-        <v>2024</v>
+        <v>79</v>
       </c>
       <c r="K5" t="n">
-        <v>79</v>
+        <v>78.7</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>7.4</v>
+        <v>42.5</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>45513</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
+        <v>-12</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Tốt nghiệp (tạm)</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Ghi chú</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>24177320240506</t>
+          <t>241774</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>241773</t>
+          <t>DUONG THI HAI</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DOAN VAN TAM</t>
+          <t>Line 319</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Line 043</t>
+          <t>BALI</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>BALI</t>
+          <t>BIND PANEL</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024-05-06</t>
+          <t>None</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>19</v>
       </c>
-      <c r="I6" t="n">
-        <v>5</v>
-      </c>
       <c r="J6" t="n">
-        <v>2024</v>
+        <v>79</v>
       </c>
       <c r="K6" t="n">
         <v>79</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>7.4</v>
+        <v>34.5</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>45513</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
+        <v>-12</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Tốt nghiệp (tạm)</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Ghi chú</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>24177320240507</t>
+          <t>123456</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>241773</t>
+          <t>HOANG NU THU PHUONG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DOAN VAN TAM</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Line 043</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>BALI</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2024-05-07</t>
-        </is>
-      </c>
+          <t>Line 18</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>3</v>
-      </c>
-      <c r="H7" t="n">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2024</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
-      <c r="M7" t="n">
-        <v>7.4</v>
+      <c r="M7" s="2" t="n">
+        <v>45513</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
+        <v>-31</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Tốt nghiệp (tạm)</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Ghi chú</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>24177420240501</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>241774</t>
+          <t>BUI VAN E</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DUONG THI HAI</t>
+          <t>015-017</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Line 043</t>
+          <t>RIT</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>BALI</t>
+          <t>BIND LEG</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2024-05-01</t>
+          <t>Đào tạo mới</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
-      </c>
-      <c r="H8" t="n">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>PHUONG</t>
+        </is>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2024</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
-      <c r="M8" t="n">
-        <v>7.4</v>
+      <c r="M8" s="2" t="n">
+        <v>45513</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
+        <v>-31</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Tốt nghiệp (tạm)</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Ghi chú</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>24177420240502</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>241774</t>
+          <t>NAME</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DUONG THI HAI</t>
+          <t>015-017</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Line 043</t>
+          <t>RIT</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>BALI</t>
+          <t>BIND LEG</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2024-05-02</t>
+          <t>Đào tạo mới</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>PHUONG</t>
+        </is>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2024</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
-      <c r="M9" t="n">
-        <v>7.4</v>
+      <c r="M9" s="2" t="n">
+        <v>45513</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>24177420240503</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>241774</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>DUONG THI HAI</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Line 043</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>BALI</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2024-05-03</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>6</v>
-      </c>
-      <c r="H10" t="n">
-        <v>18</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2024</v>
-      </c>
-      <c r="K10" t="n">
-        <v>79</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>24177420240504</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>241774</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>DUONG THI HAI</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Line 043</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>BALI</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2024-05-04</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>7</v>
-      </c>
-      <c r="H11" t="n">
-        <v>18</v>
-      </c>
-      <c r="I11" t="n">
-        <v>5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2024</v>
-      </c>
-      <c r="K11" t="n">
-        <v>79</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>24177420240506</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>241774</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>DUONG THI HAI</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Line 043</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>BALI</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2024-05-06</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H12" t="n">
-        <v>19</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2024</v>
-      </c>
-      <c r="K12" t="n">
-        <v>79</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>24177420240507</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>241774</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>DUONG THI HAI</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Line 043</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>BALI</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2024-05-07</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>3</v>
-      </c>
-      <c r="H13" t="n">
-        <v>19</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2024</v>
-      </c>
-      <c r="K13" t="n">
-        <v>79</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>24177320240508</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>241773</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>DOAN VAN TAM</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Line 043</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>BALI</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2024-05-08</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>4</v>
-      </c>
-      <c r="H14" t="n">
-        <v>19</v>
-      </c>
-      <c r="I14" t="n">
-        <v>5</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2024</v>
-      </c>
-      <c r="K14" t="n">
-        <v>78</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
+        <v>-31</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Tốt nghiệp (tạm)</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Ghi chú</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Kết quả đào tạo" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Báo cáo đào tạo tuần" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,12 +446,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Line</t>
+          <t>WEEK</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Shift</t>
+          <t>YEAR</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -465,588 +461,388 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Type_training</t>
+          <t>chatluong</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>NgayraSX</t>
+          <t>KEYE</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>ChitieuCL</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>TuanP2K_max</t>
+          <t>DanhgiaCL</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Eff_max</t>
+          <t>total_time_week</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Hieusuatgannhat</t>
+          <t>total_time</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>Ngaydaotao</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>TuanLC</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Hieusuat_tuan</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>ChitieuHS</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>NgayTN</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>TTtuanTN</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Note</t>
+          <t>DanhgiaHS</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>ttRaSX</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>241769</t>
+          <t>241773</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BUI QUANG HAOx123123</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Line 059</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>RIT</t>
-        </is>
+          <t>DOAN VAN TAM</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2024</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SEW BAND</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Đào tạo mới</t>
-        </is>
+          <t>BIND PANEL</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>PHUONGcde</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
+          <t>241773DOANVANTAM192024</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Đạt</t>
+        </is>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>21.3</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>45513</v>
+        <v>8</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.33</v>
       </c>
       <c r="N2" t="n">
-        <v>-31</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Tốt nghiệp (tạm)</t>
-        </is>
+        <v>78.7</v>
+      </c>
+      <c r="O2" t="n">
+        <v>42.5</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Ghi chú</t>
-        </is>
+          <t>Đạt</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>241770</t>
+          <t>241774</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DAO TRUNG KIEN</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Line 043</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>BALI</t>
-        </is>
+          <t>DUONG THI HAI</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2024</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SEW BAND</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+          <t>BIND PANEL</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>phuong</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>241774DUONGTHIHAI192024</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Đạt</t>
+        </is>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>14.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>44.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2" t="n">
-        <v>45513</v>
+        <v>6</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>-31</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Tốt nghiệp (tạm)</t>
-        </is>
+        <v>79</v>
+      </c>
+      <c r="O3" t="n">
+        <v>34.5</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Ghi chú</t>
-        </is>
+          <t>Đạt</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>241772</t>
+          <t>241773</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DOAN THI PHUC</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Line 043</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>BALI</t>
-        </is>
+          <t>DOAN VAN TAM</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2024</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>phuongggh</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
+          <t>BIND PANEL</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>241773DOANVANTAM182024</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Đạt</t>
+        </is>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>31.7</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>37.7</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>45513</v>
+        <v>5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.83</v>
       </c>
       <c r="N4" t="n">
-        <v>-31</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Tốt nghiệp (tạm)</t>
-        </is>
+        <v>46.8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>30.5</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Ghi chú</t>
-        </is>
+          <t>Đạt</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>241773</t>
+          <t>241774</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DOAN VAN TAM</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Line 043</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>BALI</t>
-        </is>
+          <t>DUONG THI HAI</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2024</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>BIND PANEL</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>241774DUONGTHIHAI182024</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Đạt</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="N5" t="n">
+        <v>79</v>
+      </c>
+      <c r="O5" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Đạt</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
         <v>19</v>
-      </c>
-      <c r="J5" t="n">
-        <v>79</v>
-      </c>
-      <c r="K5" t="n">
-        <v>78.7</v>
-      </c>
-      <c r="L5" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="M5" s="2" t="n">
-        <v>45513</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-12</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Tốt nghiệp (tạm)</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Ghi chú</t>
-        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>241774</t>
+          <t>241773</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DUONG THI HAI</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Line 319</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>BALI</t>
-        </is>
+          <t>DOAN VAN TAM</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2024</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>BIND PANEL</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
+      <c r="F6" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>19</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>241773DOANVANTAM172024</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Đạt</t>
+        </is>
       </c>
       <c r="J6" t="n">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="K6" t="n">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>45513</v>
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.17</v>
       </c>
       <c r="N6" t="n">
-        <v>-12</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Tốt nghiệp (tạm)</t>
-        </is>
+        <v>20</v>
+      </c>
+      <c r="O6" t="n">
+        <v>35.5</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Ghi chú</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>123456</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>HOANG NU THU PHUONG</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Line 18</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>45513</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-31</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Tốt nghiệp (tạm)</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Ghi chú</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>BUI VAN E</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>015-017</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>RIT</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>BIND LEG</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Đào tạo mới</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PHUONG</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2" t="n">
-        <v>45513</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-31</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Tốt nghiệp (tạm)</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Ghi chú</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>NAME</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>015-017</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>RIT</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>BIND LEG</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Đào tạo mới</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PHUONG</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>45513</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-31</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Tốt nghiệp (tạm)</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Ghi chú</t>
-        </is>
+          <t>Không đạt</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Báo cáo đào tạo tuần" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Dữ liệu hàng ngày" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,413 +436,1063 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>KEYE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Line</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Shift</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Weekdays</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>WEEK</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>MONTH</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>YEAR</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Operation</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Eff</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>date_no_eff</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>WorkHrs</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>stop_hours</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>downtime</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>realtime_day</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>chatluong</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>KEYE</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ChitieuCL</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>DanhgiaCL</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>total_time_week</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>total_time</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Ngaydaotao</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>TuanLC</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Hieusuat_tuan</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ChitieuHS</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>DanhgiaHS</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>ttRaSX</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>24177320240508</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>241773</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>DOAN VAN TAM</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Line 043</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>BALI</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" t="n">
         <v>19</v>
       </c>
-      <c r="D2" t="n">
+      <c r="I2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" t="n">
         <v>2024</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>BIND PANEL</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>241773DOANVANTAM192024</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Đạt</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>21.3</v>
-      </c>
       <c r="K2" t="n">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="L2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.33</v>
+        <v>6.5</v>
       </c>
       <c r="N2" t="n">
-        <v>78.7</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Đạt</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>241774</t>
+          <t>24177320240507</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DUONG THI HAI</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>241773</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DOAN VAN TAM</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Line 043</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>BALI</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
         <v>19</v>
       </c>
-      <c r="D3" t="n">
+      <c r="I3" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" t="n">
         <v>2024</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>BIND PANEL</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>241774DUONGTHIHAI192024</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Đạt</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>14.8</v>
-      </c>
       <c r="K3" t="n">
-        <v>44.4</v>
+        <v>79</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>7.4</v>
       </c>
       <c r="N3" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Đạt</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>7.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>241773</t>
+          <t>24177420240507</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DOAN VAN TAM</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
+          <t>241774</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DUONG THI HAI</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Line 043</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>BALI</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>19</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
         <v>2024</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>BIND PANEL</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>241773DOANVANTAM182024</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Đạt</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>31.7</v>
-      </c>
       <c r="K4" t="n">
-        <v>37.7</v>
+        <v>79</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.83</v>
+        <v>7.4</v>
       </c>
       <c r="N4" t="n">
-        <v>46.8</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Đạt</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>7.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>241774</t>
+          <t>24177320240506</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DUONG THI HAI</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
+          <t>241773</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DOAN VAN TAM</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Line 043</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>BALI</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>19</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
         <v>2024</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>BIND PANEL</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>241774DUONGTHIHAI182024</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Đạt</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>29.6</v>
-      </c>
       <c r="K5" t="n">
-        <v>29.6</v>
+        <v>79</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.67</v>
+        <v>7.4</v>
       </c>
       <c r="N5" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Đạt</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>7.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>24177420240506</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>241774</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DUONG THI HAI</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Line 043</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>BALI</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2024-05-06</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>19</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K6" t="n">
+        <v>79</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>24177320240504</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>241773</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>DOAN VAN TAM</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Line 043</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>BALI</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024-05-04</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>7</v>
+      </c>
+      <c r="H7" t="n">
+        <v>18</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K7" t="n">
+        <v>79</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>24177420240504</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>241774</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DUONG THI HAI</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Line 043</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>BALI</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2024-05-04</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>7</v>
+      </c>
+      <c r="H8" t="n">
+        <v>18</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K8" t="n">
+        <v>79</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>24177320240503</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>241773</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DOAN VAN TAM</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Line 043</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>BALI</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>18</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K9" t="n">
+        <v>79</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>24177420240503</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>241774</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>DUONG THI HAI</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Line 043</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>BALI</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>18</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K10" t="n">
+        <v>79</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>24177320240502</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>241773</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>DOAN VAN TAM</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Line 043</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>BALI</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>18</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K11" t="n">
+        <v>14</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>24177420240502</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>241774</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>DUONG THI HAI</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Line 043</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>BALI</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2024-05-02</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>18</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K12" t="n">
+        <v>79</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>24177320240501</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>241773</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DOAN VAN TAM</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Line 043</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>BALI</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2024-05-01</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>18</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K13" t="n">
+        <v>15</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P13" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>24177420240501</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>241774</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DUONG THI HAI</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Line 043</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>BALI</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2024-05-01</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>18</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K14" t="n">
+        <v>79</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>24177320240425</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>241773</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DOAN VAN TAM</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Line 043</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>BALI</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2024-04-25</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>5</v>
+      </c>
+      <c r="H15" t="n">
         <v>17</v>
       </c>
-      <c r="D6" t="n">
+      <c r="I15" t="n">
+        <v>4</v>
+      </c>
+      <c r="J15" t="n">
         <v>2024</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>BIND PANEL</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>241773DOANVANTAM172024</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Đạt</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
         <v>6</v>
       </c>
-      <c r="K6" t="n">
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>6</v>
       </c>
-      <c r="L6" t="n">
+      <c r="Q15" t="n">
         <v>1</v>
       </c>
-      <c r="M6" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="N6" t="n">
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>24177320240424</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>241773</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>DOAN VAN TAM</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Line 043</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>BALI</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2024-04-24</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>17</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2024</v>
+      </c>
+      <c r="K16" t="n">
         <v>20</v>
       </c>
-      <c r="O6" t="n">
-        <v>35.5</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Không đạt</t>
-        </is>
-      </c>
-      <c r="Q6" t="n">
-        <v>18</v>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>6</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,20 +486,15 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>AMT_week</t>
+          <t>Technician</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>StartDate</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>StartDate</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>NgayraSX</t>
         </is>
@@ -508,7 +503,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>120240527</t>
+          <t>120240515</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -547,27 +542,26 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>abc</t>
+          <t>PHUONGaa</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>PHUONGaa</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
+          <t>2024-08-12</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -600,18 +594,13 @@
       <c r="J3" t="n">
         <v>0</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>abc</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
         <is>
           <t>2024-08-02</t>
         </is>
       </c>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -664,20 +653,15 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>abc</t>
+          <t>PHUONGcde</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>PHUONGcde</t>
+          <t>2024-07-01</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
-        <is>
-          <t>2024-07-01</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
         <is>
           <t>2024-07-31</t>
         </is>
@@ -732,20 +716,15 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>abc</t>
+          <t>phuong</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>phuong</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
           <t>2024-08-01</t>
         </is>
       </c>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,20 +777,15 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>abc</t>
+          <t>phuongggh</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>phuongggh</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
           <t>2024-05-02</t>
         </is>
       </c>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -864,20 +838,15 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>abc</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
           <t>2024-05-02</t>
         </is>
       </c>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -930,20 +899,15 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>abc</t>
+          <t>None</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
           <t>2024-05-02</t>
         </is>
       </c>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -996,20 +960,15 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>abc</t>
+          <t>PHUONG</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>PHUONG</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
           <t>2024-05-27</t>
         </is>
       </c>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Dữ liệu đào tạo" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Báo cáo đào tạo tuần" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,540 +436,923 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>KEYE</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>WEEK</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Line</t>
+          <t>YEAR</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Shift</t>
+          <t>Operation</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Plant</t>
+          <t>chatluong</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Operation</t>
+          <t>ChitieuCL</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Type_training</t>
+          <t>DanhgiaCL</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Week_start</t>
+          <t>total_time_week</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>TuanraSX</t>
+          <t>total_time</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Technician</t>
+          <t>Ngaydaotao</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>StartDate</t>
+          <t>TuanLC</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>NgayraSX</t>
+          <t>Hieusuat_tuan</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>ChitieuHS</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>DanhgiaHS</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ttRaSX</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>120240515</t>
+          <t>100001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>BUI VAN E</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>015-017</t>
-        </is>
+          <t>HOANG NU THU PHUONG</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2024</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>RIT</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>AMT</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>BIND LEG</t>
-        </is>
+          <t>ATTACH BUTTON</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Đào tạo mới</t>
+          <t>Đạt</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>20</v>
+        <v>43.1</v>
       </c>
       <c r="J2" t="n">
-        <v>33</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>PHUONGaa</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>2024-05-15</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>2024-08-12</t>
-        </is>
+        <v>173.2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>23</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="M2" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="N2" t="n">
+        <v>80</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Đạt</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12345620240802</t>
+          <t>100002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>123456</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>HOANG NU THU PHUONG</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Line 18</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+          <t>NGUYEN TAN TAN</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>MAKE BAND</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Đạt</t>
+        </is>
+      </c>
       <c r="I3" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>171.9</v>
+      </c>
+      <c r="K3" t="n">
+        <v>23</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="M3" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="N3" t="n">
+        <v>80</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Đạt</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
         <v>31</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>2024-08-02</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>24176920240701</t>
+          <t>100001</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>241769</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>BUI QUANG HAOx123123</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Line 059</t>
-        </is>
+          <t>HOANG NU THU PHUONG</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2024</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>RIT</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Phubai Complex</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>SEW BAND</t>
-        </is>
+          <t>ATTACH BUTTON</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Đào tạo mới</t>
+          <t>Đạt</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>27</v>
+        <v>42.1</v>
       </c>
       <c r="J4" t="n">
-        <v>31</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>PHUONGcde</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>2024-07-01</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>2024-07-31</t>
-        </is>
+        <v>130.1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>17</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="M4" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>80</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Chưa đạt</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>24177020240801</t>
+          <t>100002</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>241770</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>DAO TRUNG KIEN</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Line 043</t>
-        </is>
+          <t>NGUYEN TAN TAN</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2024</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>BALI</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Phubai Complex</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>SEW BAND</t>
-        </is>
+          <t>MAKE BAND</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Đạt</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>31</v>
+        <v>42.1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>phuong</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>2024-08-01</t>
-        </is>
+        <v>128.8</v>
+      </c>
+      <c r="K5" t="n">
+        <v>17</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.83</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>77.8</v>
+      </c>
+      <c r="N5" t="n">
+        <v>80</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Chưa đạt</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>24177220240502</t>
+          <t>100003</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>241772</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>DOAN THI PHUC</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Line 043</t>
-        </is>
+          <t>LE QUANG NHAT MINH</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>29</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2024</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>BALI</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Phubai Complex</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>MAKE BAND</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Đạt</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>18</v>
+        <v>13.4</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>phuongggh</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>2024-05-02</t>
-        </is>
+        <v>100.1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>13</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.17</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>50.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Chưa đạt</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>24177320240502</t>
+          <t>100004</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>241773</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>DOAN VAN TAM</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Line 043</t>
-        </is>
+          <t>NGUYEN THANH PHUC</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>29</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2024</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>BALI</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Phubai Complex</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>BIND PANEL</t>
-        </is>
+          <t>PAD PRINT</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Đạt</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>18</v>
+        <v>14.8</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>2024-05-02</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="K7" t="n">
+        <v>13</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.17</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>50.5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>80</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Chưa đạt</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>24177420240502</t>
+          <t>100001</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>241774</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>DUONG THI HAI</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Line 319</t>
-        </is>
+          <t>HOANG NU THU PHUONG</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>28</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2024</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>BALI</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Phubai Complex</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>BIND PANEL</t>
-        </is>
+          <t>ATTACH BUTTON</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Đạt</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>18</v>
+        <v>44.5</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>2024-05-02</t>
-        </is>
+        <v>88</v>
+      </c>
+      <c r="K8" t="n">
+        <v>12</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>72.8</v>
+      </c>
+      <c r="N8" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Chưa đạt</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>320240527</t>
+          <t>100002</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>NAME</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>015-017</t>
-        </is>
+          <t>NGUYEN TAN TAN</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>28</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2024</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>RIT</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>AMT</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>BIND LEG</t>
-        </is>
+          <t>MAKE BAND</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Đào tạo mới</t>
+          <t>Đạt</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>22</v>
+        <v>44.5</v>
       </c>
       <c r="J9" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="K9" t="n">
+        <v>12</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="N9" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Chưa đạt</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>100003</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>LE QUANG NHAT MINH</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>28</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MAKE BAND</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Đạt</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="K10" t="n">
+        <v>12</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="N10" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Chưa đạt</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>100004</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NGUYEN THANH PHUC</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>28</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>PAD PRINT</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Không đạt</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>11</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M11" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="N11" t="n">
+        <v>80</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Chưa đạt</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>100001</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HOANG NU THU PHUONG</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>27</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ATTACH BUTTON</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Đạt</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>6</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="N12" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Chưa đạt</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>100002</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NGUYEN TAN TAN</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>27</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MAKE BAND</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
         <v>0</v>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>PHUONG</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>2024-05-27</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
+      <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Đạt</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="K13" t="n">
+        <v>6</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Chưa đạt</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>100003</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>LE QUANG NHAT MINH</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>27</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MAKE BAND</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
         <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Đạt</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>6</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="N14" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Chưa đạt</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>100004</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>NGUYEN THANH PHUC</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>27</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>PAD PRINT</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Đạt</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>6</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="N15" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Chưa đạt</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Báo cáo đào tạo tuần" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dữ liệu đào tạo" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,923 +436,747 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>KEYE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>WEEK</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>YEAR</t>
+          <t>Line</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Shift</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Plant</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Operation</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>chatluong</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ChitieuCL</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>DanhgiaCL</t>
+          <t>Type_training</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>total_time_week</t>
+          <t>Week_start</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>total_time</t>
+          <t>TuanraSX</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Ngaydaotao</t>
+          <t>Technician</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>TuanLC</t>
+          <t>StartDate</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Hieusuat_tuan</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ChitieuHS</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>DanhgiaHS</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>ttRaSX</t>
+          <t>NgayraSX</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>10000120240701</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>100001</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>HOANG NU THU PHUONG</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2024</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Line 017</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>RIT</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>PBC</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>ATTACH BUTTON</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3</v>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Đạt</t>
+          <t>Đào tạo mới</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>43.1</v>
+        <v>27</v>
       </c>
       <c r="J2" t="n">
-        <v>173.2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>23</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="M2" t="n">
-        <v>91.8</v>
-      </c>
-      <c r="N2" t="n">
-        <v>80</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Đạt</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>NGUYEN VAN A</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>10000220240701</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>100002</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>NGUYEN TAN TAN</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2024</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Line 009</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>BALI</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>PBC</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>MAKE BAND</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3</v>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Đạt</t>
+          <t>Đào tạo mới</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>43.1</v>
+        <v>27</v>
       </c>
       <c r="J3" t="n">
-        <v>171.9</v>
-      </c>
-      <c r="K3" t="n">
-        <v>23</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="M3" t="n">
-        <v>91.8</v>
-      </c>
-      <c r="N3" t="n">
-        <v>80</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Đạt</t>
-        </is>
-      </c>
-      <c r="P3" t="n">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>TRAN THI B</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>100001</t>
+          <t>10000320240701</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HOANG NU THU PHUONG</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>29</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2024</v>
+          <t>100003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LE QUANG NHAT MINH</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Line 017</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ATTACH BUTTON</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3</v>
+          <t>RIT</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>RA PBC</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>MAKE BAND</t>
+        </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Đạt</t>
+          <t>Đào tạo mới</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>42.1</v>
+        <v>27</v>
       </c>
       <c r="J4" t="n">
-        <v>130.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>17</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="M4" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="N4" t="n">
-        <v>80</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Chưa đạt</t>
-        </is>
-      </c>
-      <c r="P4" t="n">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>VO TAC THIEN</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2024-07-11</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>100002</t>
+          <t>10000420240701</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NGUYEN TAN TAN</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>29</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2024</v>
+          <t>100004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NGUYEN THANH PHUC</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Line 017</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MAKE BAND</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3</v>
+          <t>RIT</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>AMT</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>PAD PRINT</t>
+        </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Đạt</t>
+          <t>Đào tạo mới</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>42.1</v>
+        <v>27</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="K5" t="n">
-        <v>17</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="M5" t="n">
-        <v>77.8</v>
-      </c>
-      <c r="N5" t="n">
-        <v>80</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Chưa đạt</t>
-        </is>
-      </c>
-      <c r="P5" t="n">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>NGUYEN VAN A</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2024-08-08</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>100003</t>
+          <t>10000520240701</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LE QUANG NHAT MINH</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>29</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2024</v>
+          <t>100005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DAO HUU QUOC</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Line 017</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MAKE BAND</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3</v>
+          <t>RIT</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>AMT</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>ATTACH BUTTON</t>
+        </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Đạt</t>
+          <t>Đào tạo mới</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>13.4</v>
+        <v>27</v>
       </c>
       <c r="J6" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>13</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.17</v>
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>NGUYEN VAN A</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
       </c>
       <c r="M6" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="N6" t="n">
-        <v>76.5</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Chưa đạt</t>
-        </is>
-      </c>
-      <c r="P6" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>100004</t>
+          <t>10000620240701</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NGUYEN THANH PHUC</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>29</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2024</v>
+          <t>100006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>LE VAN NAM</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Line 009</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>BALI</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>AMT</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>PAD PRINT</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3</v>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Đạt</t>
+          <t>Đào tạo mới</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>14.8</v>
+        <v>27</v>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
-      </c>
-      <c r="K7" t="n">
-        <v>13</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.17</v>
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>TRAN THI B</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
       </c>
       <c r="M7" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="N7" t="n">
-        <v>80</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Chưa đạt</t>
-        </is>
-      </c>
-      <c r="P7" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>100001</t>
+          <t>10000720240701</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HOANG NU THU PHUONG</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>28</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2024</v>
+          <t>100007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>TRUONG MINH NHAT</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Line 009</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ATTACH BUTTON</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>3</v>
+          <t>BALI</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>AMT</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>MAKE BAND</t>
+        </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Đạt</t>
+          <t>Đào tạo mới</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>44.5</v>
+        <v>27</v>
       </c>
       <c r="J8" t="n">
-        <v>88</v>
-      </c>
-      <c r="K8" t="n">
-        <v>12</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>TRAN THI B</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
       </c>
       <c r="M8" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="N8" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Chưa đạt</t>
-        </is>
-      </c>
-      <c r="P8" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>100002</t>
+          <t>10000820240701</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NGUYEN TAN TAN</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>28</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2024</v>
+          <t>100008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LE XUAN HUY</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Line 017</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MAKE BAND</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
-      </c>
-      <c r="G9" t="n">
-        <v>3</v>
+          <t>RIT</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>AMT</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>ATTACH BUTTON</t>
+        </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Đạt</t>
+          <t>Đào tạo mới</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>44.5</v>
+        <v>27</v>
       </c>
       <c r="J9" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="K9" t="n">
-        <v>12</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>VO TAC THIEN</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
       </c>
       <c r="M9" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="N9" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Chưa đạt</t>
-        </is>
-      </c>
-      <c r="P9" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>100003</t>
+          <t>10000920240701</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LE QUANG NHAT MINH</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>28</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2024</v>
+          <t>100009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NGUYEN THI THU HUYEN</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Line 009</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MAKE BAND</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3</v>
+          <t>BALI</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>AMT</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>ATTACH BUTTON</t>
+        </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Đạt</t>
+          <t>Đào tạo mới</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>44.5</v>
+        <v>27</v>
       </c>
       <c r="J10" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="K10" t="n">
-        <v>12</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>NGUYEN VAN A</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
       </c>
       <c r="M10" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="N10" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Chưa đạt</t>
-        </is>
-      </c>
-      <c r="P10" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>100004</t>
+          <t>10001020240701</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NGUYEN THANH PHUC</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>28</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2024</v>
+          <t>100010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NGUYEN DUC HONG HANH</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Line 009</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>BALI</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>AMT</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>PAD PRINT</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>5</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3</v>
-      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Không đạt</t>
+          <t>Đào tạo mới</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>42.1</v>
+        <v>27</v>
       </c>
       <c r="J11" t="n">
-        <v>85.2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>11</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.83</v>
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>VO TAC THIEN</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
       </c>
       <c r="M11" t="n">
-        <v>42.3</v>
-      </c>
-      <c r="N11" t="n">
-        <v>80</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Chưa đạt</t>
-        </is>
-      </c>
-      <c r="P11" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>100001</t>
+          <t>10001120240701</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HOANG NU THU PHUONG</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>27</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2024</v>
+          <t>100011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NGUYEN CUU SUU</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Line 017</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>RIT</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>AMT</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>ATTACH BUTTON</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3</v>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Đạt</t>
+          <t>Đào tạo mới</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>43.5</v>
+        <v>27</v>
       </c>
       <c r="J12" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>6</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>VO TAC THIEN</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
       </c>
       <c r="M12" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="N12" t="n">
-        <v>54.5</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Chưa đạt</t>
-        </is>
-      </c>
-      <c r="P12" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>100002</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>NGUYEN TAN TAN</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>27</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>MAKE BAND</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>3</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Đạt</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>6</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="N13" t="n">
-        <v>54.5</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>Chưa đạt</t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>100003</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>LE QUANG NHAT MINH</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>27</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>MAKE BAND</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>3</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Đạt</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>6</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="N14" t="n">
-        <v>54.5</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>Chưa đạt</t>
-        </is>
-      </c>
-      <c r="P14" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>100004</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>NGUYEN THANH PHUC</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>27</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>PAD PRINT</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Đạt</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>43.1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>43.1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>6</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="N15" t="n">
-        <v>76.5</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Chưa đạt</t>
-        </is>
-      </c>
-      <c r="P15" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
